--- a/Cadeler modell.xlsx
+++ b/Cadeler modell.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962C8D6C-C802-4E44-85EB-501268E6C22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A80BFA8-8D7C-7E45-BCDD-E7B536FDECE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24260" yWindow="500" windowWidth="26720" windowHeight="26740" xr2:uid="{94B0891E-D6B3-6945-A555-DBC7EB42234E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23980" windowHeight="26740" activeTab="1" xr2:uid="{94B0891E-D6B3-6945-A555-DBC7EB42234E}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="Modell" sheetId="2" r:id="rId2"/>
     <sheet name="Nøkkeltall" sheetId="3" r:id="rId3"/>
+    <sheet name="SOTP" sheetId="4" r:id="rId4"/>
+    <sheet name="Nedsidebergning" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="269">
   <si>
     <t>Kapitalstruktur</t>
   </si>
@@ -328,9 +330,6 @@
     <t xml:space="preserve">Current income tax liabilites </t>
   </si>
   <si>
-    <t>Currenet debt to credit institutions</t>
-  </si>
-  <si>
     <t>Current derivative liabilites</t>
   </si>
   <si>
@@ -583,12 +582,6 @@
     <t>Hornsea 3</t>
   </si>
   <si>
-    <t>Ørsted 4 år</t>
-  </si>
-  <si>
-    <t>To 2030</t>
-  </si>
-  <si>
     <t>Undiclosed</t>
   </si>
   <si>
@@ -614,9 +607,6 @@
   </si>
   <si>
     <t>Ocean Winds</t>
-  </si>
-  <si>
-    <t>USA</t>
   </si>
   <si>
     <t>CFFO</t>
@@ -753,12 +743,6 @@
     <t>2025 guidance:</t>
   </si>
   <si>
-    <t>485 - 525m</t>
-  </si>
-  <si>
-    <t>278 - 318m</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -793,6 +777,140 @@
   </si>
   <si>
     <t>04.06.25: Styreleder Sohmen-Pao kjøper aksjer for 14,5 millioner, kurs 49,93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.07.25: Ørsted kansllerer kontrakten med en av CADL sine A-class skip, grunnet ikke videre med Hornsea 4. </t>
+  </si>
+  <si>
+    <r>
+      <t>CADL har krav på kompensasjon og er nå fri til gjøre hva de vil med skipet. CADL oppjusterer også 25 guidance (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Revenue: 588 - 628</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (485 - 525) og</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EBITDA: 381 - 421</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (278 - 318))</t>
+    </r>
+  </si>
+  <si>
+    <t>588 - 628m</t>
+  </si>
+  <si>
+    <t>381 - 421m</t>
+  </si>
+  <si>
+    <t>18.07.25: CADL får levert wind Keeper Samtidig som at de får 3-årskontrakt på fartøyet med Vestas som skal starte tildig 26</t>
+  </si>
+  <si>
+    <t>ROE</t>
+  </si>
+  <si>
+    <t>FY 2019</t>
+  </si>
+  <si>
+    <t>FY 2020</t>
+  </si>
+  <si>
+    <t>FY 2017</t>
+  </si>
+  <si>
+    <t>FY 2018</t>
+  </si>
+  <si>
+    <t>22.08.25: CADL signerer kontrakt med Synera Renewable energy for 35 Simens gamesa 14MW turbiner til Formosa 4 i taiwan. M-klasse og vil starte i 28 og vare i 150 dager.</t>
+  </si>
+  <si>
+    <t>Current debt to credit institutions</t>
+  </si>
+  <si>
+    <t>Repayment of loan</t>
+  </si>
+  <si>
+    <t>O&amp;M Changfang and Xidao</t>
+  </si>
+  <si>
+    <t>USA O&amp;M GE vernova</t>
+  </si>
+  <si>
+    <t>Vestas O&amp;M</t>
+  </si>
+  <si>
+    <t>Ownership</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>11.09.25: Styreleder Sohmen-Pao, kjøper aksjer for 200mill</t>
+  </si>
+  <si>
+    <t>18.09.25: CADL signerer kontrakt med ocean winds for installasjon av turbiner på BC-wind offshore i Polen</t>
+  </si>
+  <si>
+    <t>25.09.25: CADL tar leveranse av sin første A-klasse Wind Ally som skal starte på Hornsea 3 for Ørsted</t>
+  </si>
+  <si>
+    <t>Built</t>
+  </si>
+  <si>
+    <t>Equivalent newbuild delivery</t>
+  </si>
+  <si>
+    <t>Equivalent newbuild cost</t>
+  </si>
+  <si>
+    <t>NPV of equivalent newbuld capex</t>
+  </si>
+  <si>
+    <t>NPV of cashflow advantage</t>
+  </si>
+  <si>
+    <t>Total value</t>
+  </si>
+  <si>
+    <t>01.10.25: Styrelder Sohmen-Pao kjøper aksjer for 67 mill</t>
+  </si>
+  <si>
+    <t>17.10.25: CEO kjøper 1000 ADR</t>
+  </si>
+  <si>
+    <t>y/y</t>
   </si>
 </sst>
 </file>
@@ -804,7 +922,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0\ %"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -896,8 +1014,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -926,6 +1065,18 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF548235"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1020,7 +1171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1101,9 +1252,16 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1131,6 +1289,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1161,7 +1325,7 @@
       <xdr:col>32</xdr:col>
       <xdr:colOff>243220</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
+      <xdr:rowOff>192263</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1205,7 +1369,7 @@
       <xdr:col>27</xdr:col>
       <xdr:colOff>131188</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>158749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1242,13 +1406,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>904874</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>206375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>590334</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1274,6 +1438,55 @@
         <a:xfrm>
           <a:off x="904874" y="12128500"/>
           <a:ext cx="12750585" cy="4191000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Bilde 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A12028-536F-92C3-4A6F-A8F5B1ACC082}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="2743199"/>
+          <a:ext cx="13030200" cy="6022597"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1582,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060C1435-709C-3B43-BA1B-F2D0BCFE38FD}">
-  <dimension ref="A1:AM66"/>
+  <dimension ref="A1:AM67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1627,7 +1840,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N1" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1647,11 +1860,11 @@
         <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="70" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -1674,7 +1887,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
@@ -1695,7 +1908,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="18" t="s">
         <v>10</v>
       </c>
@@ -1719,7 +1932,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
@@ -1743,12 +1956,12 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="18" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D9" s="19">
         <v>2200</v>
@@ -1757,12 +1970,12 @@
       <c r="F9" s="19">
         <v>15</v>
       </c>
-      <c r="G9" s="34" t="s">
-        <v>237</v>
+      <c r="G9" s="19" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="18" t="s">
         <v>12</v>
       </c>
@@ -1779,11 +1992,11 @@
         <v>35</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="18" t="s">
         <v>13</v>
       </c>
@@ -1804,7 +2017,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="18" t="s">
         <v>14</v>
       </c>
@@ -1824,8 +2037,8 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
+    <row r="13" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="72"/>
       <c r="B13" s="18" t="s">
         <v>15</v>
       </c>
@@ -1844,9 +2057,12 @@
       <c r="G13" s="19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+      <c r="J13" s="60" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A14" s="70" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -1864,12 +2080,18 @@
       <c r="F14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
+      <c r="G14" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="61" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A15" s="71"/>
       <c r="B15" s="18" t="s">
         <v>17</v>
       </c>
@@ -1888,9 +2110,15 @@
       <c r="G15" s="34" t="s">
         <v>40</v>
       </c>
+      <c r="J15" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="61" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="18" t="s">
         <v>18</v>
       </c>
@@ -1913,203 +2141,188 @@
     <row r="18" spans="1:39" ht="24" x14ac:dyDescent="0.3">
       <c r="H18" s="61"/>
     </row>
-    <row r="19" spans="1:39" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="60" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" ht="24" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="61" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" s="61" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="P30" s="68">
+        <v>237</v>
+      </c>
+      <c r="P30" s="73">
         <v>2024</v>
       </c>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="68">
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="73">
         <v>2025</v>
       </c>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="68">
+      <c r="U30" s="74"/>
+      <c r="V30" s="74"/>
+      <c r="W30" s="75"/>
+      <c r="X30" s="73">
         <v>2026</v>
       </c>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="70"/>
-      <c r="AB30" s="68">
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="74"/>
+      <c r="AA30" s="75"/>
+      <c r="AB30" s="73">
         <v>2027</v>
       </c>
-      <c r="AC30" s="69"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="70"/>
-      <c r="AF30" s="71">
+      <c r="AC30" s="74"/>
+      <c r="AD30" s="74"/>
+      <c r="AE30" s="75"/>
+      <c r="AF30" s="76">
         <v>2028</v>
       </c>
-      <c r="AG30" s="72"/>
-      <c r="AH30" s="72"/>
-      <c r="AI30" s="73"/>
-      <c r="AJ30" s="71">
+      <c r="AG30" s="77"/>
+      <c r="AH30" s="77"/>
+      <c r="AI30" s="78"/>
+      <c r="AJ30" s="76">
         <v>2029</v>
       </c>
-      <c r="AK30" s="72"/>
-      <c r="AL30" s="72"/>
-      <c r="AM30" s="73"/>
+      <c r="AK30" s="77"/>
+      <c r="AL30" s="77"/>
+      <c r="AM30" s="78"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="N31" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O31" s="35" t="s">
         <v>19</v>
       </c>
       <c r="P31" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q31" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="Q31" s="36" t="s">
+      <c r="R31" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="R31" s="36" t="s">
+      <c r="S31" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="S31" s="37" t="s">
-        <v>157</v>
-      </c>
       <c r="T31" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="U31" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="U31" s="59" t="s">
+      <c r="V31" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="V31" s="36" t="s">
+      <c r="W31" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="W31" s="37" t="s">
-        <v>157</v>
-      </c>
       <c r="X31" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y31" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="Y31" s="36" t="s">
+      <c r="Z31" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="Z31" s="36" t="s">
+      <c r="AA31" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="AA31" s="37" t="s">
-        <v>157</v>
-      </c>
       <c r="AB31" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC31" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="AC31" s="36" t="s">
+      <c r="AD31" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="AD31" s="36" t="s">
+      <c r="AE31" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="AE31" s="37" t="s">
-        <v>157</v>
-      </c>
       <c r="AF31" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG31" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="AG31" s="36" t="s">
+      <c r="AH31" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="AH31" s="36" t="s">
+      <c r="AI31" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="AI31" s="37" t="s">
-        <v>157</v>
-      </c>
       <c r="AJ31" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK31" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="AK31" s="36" t="s">
+      <c r="AL31" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="AL31" s="36" t="s">
+      <c r="AM31" s="37" t="s">
         <v>156</v>
-      </c>
-      <c r="AM31" s="37" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="P32" s="39"/>
       <c r="S32" s="3"/>
@@ -2126,7 +2339,7 @@
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>10</v>
@@ -2136,12 +2349,12 @@
       </c>
       <c r="P33" s="43"/>
       <c r="Q33" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R33" s="42"/>
       <c r="S33" s="48"/>
       <c r="T33" s="50" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="U33" s="42" t="s">
         <v>172</v>
@@ -2151,13 +2364,13 @@
       <c r="X33" s="52"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC33" s="47"/>
       <c r="AD33" s="47"/>
       <c r="AE33" s="53"/>
       <c r="AF33" s="50" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AG33" s="47"/>
       <c r="AH33" s="47"/>
@@ -2167,7 +2380,7 @@
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>11</v>
@@ -2177,27 +2390,27 @@
       </c>
       <c r="P34" s="43"/>
       <c r="Q34" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R34" s="42"/>
       <c r="S34" s="48"/>
       <c r="T34" s="50" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="U34" s="42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="V34" s="47"/>
       <c r="W34" s="48"/>
       <c r="X34" s="52"/>
       <c r="Y34" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z34" s="47"/>
       <c r="AA34" s="53"/>
       <c r="AB34" s="39"/>
       <c r="AD34" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AE34" s="48"/>
       <c r="AF34" s="52"/>
@@ -2208,22 +2421,22 @@
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P35" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q35" s="44"/>
       <c r="R35" s="44"/>
       <c r="S35" s="46"/>
       <c r="T35" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U35" s="47"/>
       <c r="V35" s="47"/>
@@ -2232,14 +2445,14 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="40"/>
       <c r="AA35" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB35" s="49"/>
       <c r="AC35" s="47"/>
       <c r="AD35" s="47"/>
       <c r="AE35" s="53"/>
       <c r="AF35" s="50" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AG35" s="47"/>
       <c r="AH35" s="47"/>
@@ -2249,38 +2462,38 @@
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P36" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q36" s="44"/>
       <c r="R36" s="44"/>
       <c r="S36" s="45"/>
       <c r="T36" s="43"/>
       <c r="U36" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="V36" s="47"/>
+        <v>253</v>
+      </c>
+      <c r="V36" s="42"/>
       <c r="W36" s="48"/>
       <c r="X36" s="49"/>
       <c r="Y36" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z36" s="47"/>
       <c r="AA36" s="53"/>
       <c r="AB36" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC36" s="40"/>
       <c r="AD36" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AE36" s="48"/>
       <c r="AF36" s="39"/>
@@ -2290,16 +2503,16 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P37" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q37" s="44"/>
       <c r="R37" s="44"/>
@@ -2309,40 +2522,36 @@
       <c r="V37" s="44"/>
       <c r="W37" s="45"/>
       <c r="X37" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y37" s="47"/>
       <c r="Z37" s="47"/>
       <c r="AA37" s="48"/>
-      <c r="AB37" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="48"/>
-      <c r="AF37" s="49"/>
-      <c r="AG37" s="47"/>
-      <c r="AH37" s="47"/>
-      <c r="AI37" s="48"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="47"/>
-      <c r="AL37" s="47"/>
-      <c r="AM37" s="51" t="s">
-        <v>182</v>
-      </c>
+      <c r="AB37" s="62"/>
+      <c r="AC37" s="63"/>
+      <c r="AD37" s="63"/>
+      <c r="AE37" s="64"/>
+      <c r="AF37" s="65"/>
+      <c r="AG37" s="63"/>
+      <c r="AH37" s="63"/>
+      <c r="AI37" s="64"/>
+      <c r="AJ37" s="65"/>
+      <c r="AK37" s="63"/>
+      <c r="AL37" s="63"/>
+      <c r="AM37" s="66"/>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P38" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q38" s="44"/>
       <c r="R38" s="44"/>
@@ -2356,13 +2565,13 @@
       <c r="Z38" s="41"/>
       <c r="AA38" s="46"/>
       <c r="AB38" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC38" s="47"/>
       <c r="AD38" s="40"/>
       <c r="AE38" s="53"/>
       <c r="AF38" s="50" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AG38" s="47"/>
       <c r="AH38" s="40"/>
@@ -2371,15 +2580,15 @@
       <c r="AK38" s="40"/>
       <c r="AL38" s="40"/>
       <c r="AM38" s="54" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>30</v>
@@ -2406,55 +2615,59 @@
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="P40" s="39"/>
-      <c r="Q40" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="R40" s="47"/>
       <c r="S40" s="3"/>
       <c r="T40" s="39"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="39"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="39"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="39"/>
-      <c r="AI40" s="3"/>
-      <c r="AJ40" s="39"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y40" s="47"/>
+      <c r="Z40" s="47"/>
+      <c r="AA40" s="48"/>
+      <c r="AB40" s="49"/>
+      <c r="AC40" s="47"/>
+      <c r="AD40" s="47"/>
+      <c r="AE40" s="48"/>
+      <c r="AF40" s="49"/>
+      <c r="AG40" s="47"/>
+      <c r="AH40" s="47"/>
+      <c r="AI40" s="48"/>
+      <c r="AJ40" s="49"/>
       <c r="AM40" s="3"/>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>163</v>
+        <v>8</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P41" s="49"/>
+        <v>25</v>
+      </c>
+      <c r="P41" s="39"/>
       <c r="Q41" s="42" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="R41" s="47"/>
-      <c r="S41" s="48"/>
+      <c r="S41" s="3"/>
       <c r="T41" s="50" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="U41" s="47"/>
       <c r="V41" s="47"/>
       <c r="W41" s="48"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="40"/>
+      <c r="X41" s="39"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="39"/>
       <c r="AE41" s="3"/>
@@ -2465,133 +2678,205 @@
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P42" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="42" t="s">
-        <v>185</v>
+        <v>26</v>
+      </c>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="R42" s="47"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="67" t="s">
+        <v>181</v>
       </c>
       <c r="V42" s="47"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="39"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="40"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="39"/>
-      <c r="AC42" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD42" s="47"/>
-      <c r="AE42" s="53"/>
+      <c r="AE42" s="3"/>
       <c r="AF42" s="39"/>
-      <c r="AG42" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH42" s="47"/>
-      <c r="AI42" s="48"/>
-      <c r="AJ42" s="49"/>
-      <c r="AK42" s="40"/>
-      <c r="AL42" s="40"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="39"/>
       <c r="AM42" s="3"/>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P43" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q43" s="44"/>
       <c r="R43" s="44"/>
       <c r="S43" s="45"/>
       <c r="T43" s="43"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="X43" s="49"/>
-      <c r="Y43" s="47"/>
-      <c r="Z43" s="47"/>
-      <c r="AA43" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB43" s="49"/>
-      <c r="AC43" s="47"/>
-      <c r="AE43" s="3"/>
+      <c r="U43" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="V43" s="47"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="39"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="39"/>
+      <c r="AC43" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD43" s="47"/>
+      <c r="AE43" s="53"/>
       <c r="AF43" s="39"/>
-      <c r="AI43" s="3"/>
-      <c r="AJ43" s="39"/>
+      <c r="AG43" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH43" s="47"/>
+      <c r="AI43" s="48"/>
+      <c r="AJ43" s="49"/>
+      <c r="AK43" s="40"/>
+      <c r="AL43" s="40"/>
       <c r="AM43" s="3"/>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>197</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="45"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="X44" s="49"/>
+      <c r="Y44" s="47"/>
+      <c r="Z44" s="47"/>
+      <c r="AA44" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB44" s="49"/>
+      <c r="AC44" s="47"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="39"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="39"/>
+      <c r="AM44" s="3"/>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="N45" s="42" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="N46" s="40" t="s">
-        <v>167</v>
+        <v>137</v>
+      </c>
+      <c r="N46" s="42" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N47" s="41" t="s">
-        <v>168</v>
+        <v>138</v>
+      </c>
+      <c r="N47" s="40" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
+      </c>
+      <c r="N48" s="41" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N65" s="2" t="s">
-        <v>240</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N66" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N67" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2612,13 +2897,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB8B2C7-14A3-8048-87F7-966AE076B37C}">
-  <dimension ref="A3:EE210"/>
+  <dimension ref="A3:EG215"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U27" sqref="U27"/>
+      <selection pane="bottomRight" activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2626,21 +2911,25 @@
     <col min="1" max="1" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="3"/>
     <col min="3" max="3" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="10.83203125" style="2"/>
-    <col min="16" max="16" width="10.83203125" style="3"/>
-    <col min="17" max="26" width="10.83203125" style="2"/>
-    <col min="27" max="27" width="10.83203125" style="3"/>
-    <col min="28" max="38" width="10.83203125" style="2"/>
-    <col min="39" max="39" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="16" width="10.83203125" style="2"/>
+    <col min="17" max="17" width="10.83203125" style="3"/>
+    <col min="18" max="20" width="10.83203125" style="2"/>
+    <col min="21" max="21" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10.83203125" style="2"/>
+    <col min="24" max="24" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="10.83203125" style="2"/>
+    <col min="29" max="29" width="10.83203125" style="3"/>
+    <col min="30" max="40" width="10.83203125" style="2"/>
+    <col min="41" max="41" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>43</v>
@@ -2678,73 +2967,83 @@
       <c r="O3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="R3" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="S3" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="S3" s="14" t="s">
-        <v>119</v>
-      </c>
       <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
+      <c r="U3" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>248</v>
+      </c>
       <c r="W3" s="14" t="s">
-        <v>115</v>
+        <v>245</v>
       </c>
       <c r="X3" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA3" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="AB3" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="AC3" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AD3" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="AB3" s="14" t="s">
+      <c r="AE3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="AC3" s="14" t="s">
+      <c r="AF3" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="14" t="s">
+      <c r="AG3" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AH3" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AF3" s="14" t="s">
+      <c r="AI3" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AG3" s="14" t="s">
+      <c r="AJ3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AH3" s="14" t="s">
+      <c r="AK3" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="AI3" s="14" t="s">
+      <c r="AL3" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AJ3" s="14" t="s">
+      <c r="AM3" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="AK3" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:135" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:137" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>52</v>
+      <c r="B4" s="5">
+        <v>47</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>56</v>
@@ -2772,78 +3071,76 @@
         <f>248.738-163</f>
         <v>85.738</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="27">
         <v>65.474000000000004</v>
       </c>
-      <c r="Q4" s="27">
-        <v>140</v>
-      </c>
-      <c r="R4" s="27">
-        <v>140</v>
-      </c>
-      <c r="S4" s="27">
-        <v>125</v>
-      </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="Q4" s="10">
+        <f>298.535-P4</f>
+        <v>233.06100000000004</v>
+      </c>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="22">
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="22">
         <v>60.938000000000002</v>
       </c>
-      <c r="X4" s="22">
+      <c r="Z4" s="22">
         <v>106.42400000000001</v>
       </c>
-      <c r="Y4" s="22">
+      <c r="AA4" s="22">
         <v>108.622</v>
       </c>
-      <c r="Z4" s="22">
+      <c r="AB4" s="22">
         <f>SUM(L4:O4)</f>
         <v>248.738</v>
       </c>
-      <c r="AA4" s="10">
-        <f>SUM(P4:S4)</f>
-        <v>470.47399999999999</v>
-      </c>
-      <c r="AB4" s="27">
+      <c r="AC4" s="10">
+        <v>605</v>
+      </c>
+      <c r="AD4" s="27">
         <v>1129</v>
       </c>
-      <c r="AC4" s="27">
+      <c r="AE4" s="27">
         <v>1472</v>
       </c>
-      <c r="AD4" s="27">
-        <f>AC4*1.1</f>
-        <v>1619.2</v>
-      </c>
-      <c r="AE4" s="27">
-        <f t="shared" ref="AE4:AK4" si="0">AD4*1.1</f>
-        <v>1781.1200000000001</v>
-      </c>
       <c r="AF4" s="27">
-        <f t="shared" si="0"/>
-        <v>1959.2320000000002</v>
+        <f>AE4*1.075</f>
+        <v>1582.3999999999999</v>
       </c>
       <c r="AG4" s="27">
-        <f t="shared" si="0"/>
-        <v>2155.1552000000006</v>
+        <f>AF4*1.05</f>
+        <v>1661.52</v>
       </c>
       <c r="AH4" s="27">
-        <f t="shared" si="0"/>
-        <v>2370.670720000001</v>
+        <f t="shared" ref="AH4:AM4" si="0">AG4*1.05</f>
+        <v>1744.596</v>
       </c>
       <c r="AI4" s="27">
         <f t="shared" si="0"/>
-        <v>2607.7377920000013</v>
+        <v>1831.8258000000001</v>
       </c>
       <c r="AJ4" s="27">
         <f t="shared" si="0"/>
-        <v>2868.5115712000015</v>
+        <v>1923.4170900000001</v>
       </c>
       <c r="AK4" s="27">
         <f t="shared" si="0"/>
-        <v>3155.3627283200021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:135" x14ac:dyDescent="0.25">
+        <v>2019.5879445000003</v>
+      </c>
+      <c r="AL4" s="27">
+        <f t="shared" si="0"/>
+        <v>2120.5673417250005</v>
+      </c>
+      <c r="AM4" s="27">
+        <f t="shared" si="0"/>
+        <v>2226.5957088112505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2876,81 +3173,79 @@
         <f>90-124.228</f>
         <v>-34.227999999999994</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="9">
         <v>-44.558</v>
       </c>
-      <c r="Q5" s="9">
-        <v>-50</v>
-      </c>
-      <c r="R5" s="9">
-        <v>-50</v>
-      </c>
-      <c r="S5" s="9">
-        <v>-43</v>
-      </c>
-      <c r="W5" s="21">
+      <c r="Q5" s="8">
+        <f>-100.234-P5</f>
+        <v>-55.675999999999995</v>
+      </c>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="Y5" s="21">
         <v>-38.878999999999998</v>
       </c>
-      <c r="X5" s="21">
+      <c r="Z5" s="21">
         <v>-49.536999999999999</v>
       </c>
-      <c r="Y5" s="21">
+      <c r="AA5" s="21">
         <v>-59.857999999999997</v>
       </c>
-      <c r="Z5" s="21">
+      <c r="AB5" s="21">
         <f>SUM(L5:O5)</f>
         <v>-124.50699999999999</v>
       </c>
-      <c r="AA5" s="8">
-        <f t="shared" ref="AA5:AA6" si="1">SUM(P5:S5)</f>
-        <v>-187.55799999999999</v>
-      </c>
-      <c r="AB5" s="9">
+      <c r="AC5" s="8">
+        <v>-193</v>
+      </c>
+      <c r="AD5" s="9">
         <v>-526</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AE5" s="9">
         <v>-600</v>
       </c>
-      <c r="AD5" s="9">
-        <f>AC5*1.1</f>
-        <v>-660</v>
-      </c>
-      <c r="AE5" s="9">
-        <f t="shared" ref="AE5:AK5" si="2">AD5*1.1</f>
-        <v>-726.00000000000011</v>
-      </c>
       <c r="AF5" s="9">
-        <f t="shared" si="2"/>
-        <v>-798.60000000000014</v>
+        <f>AE5*1.075</f>
+        <v>-645</v>
       </c>
       <c r="AG5" s="9">
-        <f t="shared" si="2"/>
-        <v>-878.46000000000026</v>
+        <f>AF5*1.05</f>
+        <v>-677.25</v>
       </c>
       <c r="AH5" s="9">
-        <f t="shared" si="2"/>
-        <v>-966.30600000000038</v>
+        <f t="shared" ref="AH5:AM5" si="1">AG5*1.05</f>
+        <v>-711.11250000000007</v>
       </c>
       <c r="AI5" s="9">
-        <f t="shared" si="2"/>
-        <v>-1062.9366000000005</v>
+        <f t="shared" si="1"/>
+        <v>-746.66812500000015</v>
       </c>
       <c r="AJ5" s="9">
-        <f t="shared" si="2"/>
-        <v>-1169.2302600000005</v>
+        <f t="shared" si="1"/>
+        <v>-784.0015312500002</v>
       </c>
       <c r="AK5" s="9">
-        <f t="shared" si="2"/>
-        <v>-1286.1532860000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:135" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>-823.20160781250024</v>
+      </c>
+      <c r="AL5" s="9">
+        <f t="shared" si="1"/>
+        <v>-864.36168820312525</v>
+      </c>
+      <c r="AM5" s="9">
+        <f t="shared" si="1"/>
+        <v>-907.57977261328153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6">
         <f>B4*B5</f>
-        <v>18249.794316</v>
+        <v>16495.006400999999</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>58</v>
@@ -2977,83 +3272,81 @@
       <c r="O6" s="9">
         <v>0</v>
       </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0</v>
-      </c>
-      <c r="S6" s="9">
-        <v>0</v>
-      </c>
-      <c r="W6" s="21">
-        <v>0</v>
-      </c>
-      <c r="X6" s="21">
-        <v>0</v>
-      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
       <c r="Y6" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="21">
         <v>0.13700000000000001</v>
       </c>
-      <c r="Z6" s="21">
+      <c r="AB6" s="21">
         <f>SUM(L6:O6)</f>
         <v>1.397</v>
       </c>
-      <c r="AA6" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9">
+      <c r="AC6" s="8">
+        <f t="shared" ref="AC6" si="2">SUM(P6:S6)</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="9">
         <v>-50</v>
       </c>
-      <c r="AC6" s="9">
+      <c r="AE6" s="9">
         <v>-100</v>
       </c>
-      <c r="AD6" s="9">
-        <f>AC6*1.2</f>
-        <v>-120</v>
-      </c>
-      <c r="AE6" s="9">
-        <f t="shared" ref="AE6:AK6" si="3">AD6*1.2</f>
-        <v>-144</v>
-      </c>
       <c r="AF6" s="9">
-        <f t="shared" si="3"/>
-        <v>-172.79999999999998</v>
+        <f>AE6*1.075</f>
+        <v>-107.5</v>
       </c>
       <c r="AG6" s="9">
-        <f t="shared" si="3"/>
-        <v>-207.35999999999999</v>
+        <f>AF6*1.05</f>
+        <v>-112.875</v>
       </c>
       <c r="AH6" s="9">
-        <f t="shared" si="3"/>
-        <v>-248.83199999999997</v>
+        <f t="shared" ref="AH6:AM6" si="3">AG6*1.05</f>
+        <v>-118.51875000000001</v>
       </c>
       <c r="AI6" s="9">
         <f t="shared" si="3"/>
-        <v>-298.59839999999997</v>
+        <v>-124.44468750000001</v>
       </c>
       <c r="AJ6" s="9">
         <f t="shared" si="3"/>
-        <v>-358.31807999999995</v>
+        <v>-130.66692187500001</v>
       </c>
       <c r="AK6" s="9">
         <f t="shared" si="3"/>
-        <v>-429.98169599999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:135" x14ac:dyDescent="0.25">
+        <v>-137.20026796875001</v>
+      </c>
+      <c r="AL6" s="9">
+        <f t="shared" si="3"/>
+        <v>-144.06028136718751</v>
+      </c>
+      <c r="AM6" s="9">
+        <f t="shared" si="3"/>
+        <v>-151.26329543554689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="6">
-        <v>682.66</v>
+        <v>629.11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -3082,92 +3375,88 @@
         <f>SUM(O4:O5)</f>
         <v>51.510000000000005</v>
       </c>
-      <c r="P7" s="10">
-        <f t="shared" ref="P7:S7" si="6">SUM(P4:P5)</f>
+      <c r="P7" s="27">
+        <f t="shared" ref="P7:Q7" si="6">SUM(P4:P5)</f>
         <v>20.916000000000004</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="Q7" s="10">
         <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="R7" s="27">
-        <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="S7" s="27">
-        <f t="shared" si="6"/>
-        <v>82</v>
-      </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
+        <v>177.38500000000005</v>
+      </c>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
       <c r="V7" s="4"/>
-      <c r="W7" s="22">
-        <f t="shared" ref="W7:Y7" si="7">SUM(W4:W6)</f>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="22">
+        <f t="shared" ref="Y7:AA7" si="7">SUM(Y4:Y6)</f>
         <v>22.059000000000005</v>
       </c>
-      <c r="X7" s="22">
+      <c r="Z7" s="22">
         <f t="shared" si="7"/>
         <v>56.887000000000008</v>
       </c>
-      <c r="Y7" s="22">
+      <c r="AA7" s="22">
         <f t="shared" si="7"/>
         <v>48.901000000000003</v>
       </c>
-      <c r="Z7" s="22">
-        <f>SUM(Z4:Z6)</f>
+      <c r="AB7" s="22">
+        <f>SUM(AB4:AB6)</f>
         <v>125.62800000000001</v>
       </c>
-      <c r="AA7" s="24">
-        <f>SUM(AA4:AA6)</f>
-        <v>282.916</v>
-      </c>
-      <c r="AB7" s="22">
-        <f t="shared" ref="AB7:AK7" si="8">SUM(AB4:AB6)</f>
+      <c r="AC7" s="24">
+        <f>SUM(AC4:AC6)</f>
+        <v>412</v>
+      </c>
+      <c r="AD7" s="22">
+        <f t="shared" ref="AD7:AM7" si="8">SUM(AD4:AD6)</f>
         <v>553</v>
       </c>
-      <c r="AC7" s="22">
+      <c r="AE7" s="22">
         <f t="shared" si="8"/>
         <v>772</v>
       </c>
-      <c r="AD7" s="22">
-        <f t="shared" si="8"/>
-        <v>839.2</v>
-      </c>
-      <c r="AE7" s="22">
-        <f t="shared" si="8"/>
-        <v>911.11999999999989</v>
-      </c>
       <c r="AF7" s="22">
         <f t="shared" si="8"/>
-        <v>987.83200000000011</v>
+        <v>829.89999999999986</v>
       </c>
       <c r="AG7" s="22">
         <f t="shared" si="8"/>
-        <v>1069.3352000000004</v>
+        <v>871.39499999999998</v>
       </c>
       <c r="AH7" s="22">
         <f t="shared" si="8"/>
-        <v>1155.5327200000006</v>
+        <v>914.96474999999987</v>
       </c>
       <c r="AI7" s="22">
         <f t="shared" si="8"/>
-        <v>1246.202792000001</v>
+        <v>960.71298749999994</v>
       </c>
       <c r="AJ7" s="22">
         <f t="shared" si="8"/>
-        <v>1340.963231200001</v>
+        <v>1008.7486368749999</v>
       </c>
       <c r="AK7" s="22">
         <f t="shared" si="8"/>
-        <v>1439.2277463200016</v>
-      </c>
-    </row>
-    <row r="8" spans="1:135" x14ac:dyDescent="0.25">
+        <v>1059.18606871875</v>
+      </c>
+      <c r="AL7" s="22">
+        <f t="shared" si="8"/>
+        <v>1112.1453721546877</v>
+      </c>
+      <c r="AM7" s="22">
+        <f t="shared" si="8"/>
+        <v>1167.7526407624221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="6">
-        <v>6355.8</v>
+        <v>11794</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>59</v>
@@ -3195,81 +3484,79 @@
         <f>-14</f>
         <v>-14</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="9">
         <v>-16.222000000000001</v>
       </c>
-      <c r="Q8" s="9">
-        <v>-29</v>
-      </c>
-      <c r="R8" s="9">
-        <v>-28</v>
-      </c>
-      <c r="S8" s="9">
-        <v>-32</v>
-      </c>
-      <c r="W8" s="21">
+      <c r="Q8" s="8">
+        <f>2.8-33.2-P8</f>
+        <v>-14.178000000000001</v>
+      </c>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="Y8" s="21">
         <v>-10.925000000000001</v>
       </c>
-      <c r="X8" s="21">
+      <c r="Z8" s="21">
         <v>-15.696</v>
       </c>
-      <c r="Y8" s="21">
+      <c r="AA8" s="21">
         <v>-34.457999999999998</v>
       </c>
-      <c r="Z8" s="21">
+      <c r="AB8" s="21">
         <f>SUM(L8:O8)</f>
         <v>-55.296999999999997</v>
       </c>
-      <c r="AA8" s="8">
-        <f>SUM(P8:S8)</f>
-        <v>-105.22200000000001</v>
-      </c>
-      <c r="AB8" s="9">
+      <c r="AC8" s="8">
+        <v>-90</v>
+      </c>
+      <c r="AD8" s="9">
         <v>-240</v>
       </c>
-      <c r="AC8" s="9">
+      <c r="AE8" s="9">
         <v>-160</v>
       </c>
-      <c r="AD8" s="9">
-        <f>AC8*1.1</f>
+      <c r="AF8" s="9">
+        <f>AE8*1.1</f>
         <v>-176</v>
       </c>
-      <c r="AE8" s="9">
-        <f t="shared" ref="AE8:AK8" si="9">AD8*1.1</f>
+      <c r="AG8" s="9">
+        <f t="shared" ref="AG8:AM8" si="9">AF8*1.1</f>
         <v>-193.60000000000002</v>
       </c>
-      <c r="AF8" s="9">
+      <c r="AH8" s="9">
         <f t="shared" si="9"/>
         <v>-212.96000000000004</v>
       </c>
-      <c r="AG8" s="9">
+      <c r="AI8" s="9">
         <f t="shared" si="9"/>
         <v>-234.25600000000006</v>
       </c>
-      <c r="AH8" s="9">
+      <c r="AJ8" s="9">
         <f t="shared" si="9"/>
         <v>-257.68160000000006</v>
       </c>
-      <c r="AI8" s="9">
+      <c r="AK8" s="9">
         <f t="shared" si="9"/>
         <v>-283.44976000000008</v>
       </c>
-      <c r="AJ8" s="9">
+      <c r="AL8" s="9">
         <f t="shared" si="9"/>
         <v>-311.79473600000011</v>
       </c>
-      <c r="AK8" s="9">
+      <c r="AM8" s="9">
         <f t="shared" si="9"/>
         <v>-342.97420960000017</v>
       </c>
     </row>
-    <row r="9" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="7">
         <f>B6-B7+B8</f>
-        <v>23922.934315999999</v>
+        <v>27659.896400999998</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>60</v>
@@ -3301,87 +3588,83 @@
         <f>SUM(O7:O8)</f>
         <v>37.510000000000005</v>
       </c>
-      <c r="P9" s="10">
-        <f t="shared" ref="P9:S9" si="12">SUM(P7:P8)</f>
+      <c r="P9" s="27">
+        <f t="shared" ref="P9:Q9" si="12">SUM(P7:P8)</f>
         <v>4.6940000000000026</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="10">
         <f t="shared" si="12"/>
-        <v>61</v>
-      </c>
-      <c r="R9" s="27">
-        <f t="shared" si="12"/>
-        <v>62</v>
-      </c>
-      <c r="S9" s="27">
-        <f t="shared" si="12"/>
-        <v>50</v>
-      </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
+        <v>163.20700000000005</v>
+      </c>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="22">
-        <f t="shared" ref="W9:Y9" si="13">SUM(W7:W8)</f>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="22">
+        <f t="shared" ref="Y9:AA9" si="13">SUM(Y7:Y8)</f>
         <v>11.134000000000004</v>
       </c>
-      <c r="X9" s="22">
+      <c r="Z9" s="22">
         <f t="shared" si="13"/>
         <v>41.19100000000001</v>
       </c>
-      <c r="Y9" s="22">
+      <c r="AA9" s="22">
         <f t="shared" si="13"/>
         <v>14.443000000000005</v>
       </c>
-      <c r="Z9" s="22">
-        <f>SUM(Z7:Z8)</f>
+      <c r="AB9" s="22">
+        <f>SUM(AB7:AB8)</f>
         <v>70.331000000000017</v>
       </c>
-      <c r="AA9" s="24">
-        <f t="shared" ref="AA9:AK9" si="14">SUM(AA7:AA8)</f>
-        <v>177.69399999999999</v>
-      </c>
-      <c r="AB9" s="22">
+      <c r="AC9" s="24">
+        <f t="shared" ref="AC9:AM9" si="14">SUM(AC7:AC8)</f>
+        <v>322</v>
+      </c>
+      <c r="AD9" s="22">
         <f t="shared" si="14"/>
         <v>313</v>
       </c>
-      <c r="AC9" s="22">
+      <c r="AE9" s="22">
         <f t="shared" si="14"/>
         <v>612</v>
       </c>
-      <c r="AD9" s="22">
-        <f t="shared" si="14"/>
-        <v>663.2</v>
-      </c>
-      <c r="AE9" s="22">
-        <f t="shared" si="14"/>
-        <v>717.51999999999987</v>
-      </c>
       <c r="AF9" s="22">
         <f t="shared" si="14"/>
-        <v>774.87200000000007</v>
+        <v>653.89999999999986</v>
       </c>
       <c r="AG9" s="22">
         <f t="shared" si="14"/>
-        <v>835.07920000000036</v>
+        <v>677.79499999999996</v>
       </c>
       <c r="AH9" s="22">
         <f t="shared" si="14"/>
-        <v>897.85112000000049</v>
+        <v>702.00474999999983</v>
       </c>
       <c r="AI9" s="22">
         <f t="shared" si="14"/>
-        <v>962.75303200000087</v>
+        <v>726.45698749999985</v>
       </c>
       <c r="AJ9" s="22">
         <f t="shared" si="14"/>
-        <v>1029.168495200001</v>
+        <v>751.06703687499976</v>
       </c>
       <c r="AK9" s="22">
         <f t="shared" si="14"/>
-        <v>1096.2535367200014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:135" x14ac:dyDescent="0.25">
+        <v>775.73630871874991</v>
+      </c>
+      <c r="AL9" s="22">
+        <f t="shared" si="14"/>
+        <v>800.35063615468766</v>
+      </c>
+      <c r="AM9" s="22">
+        <f t="shared" si="14"/>
+        <v>824.77843116242184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:137" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>61</v>
       </c>
@@ -3407,43 +3690,34 @@
       <c r="O10" s="9">
         <v>3.2</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="9">
         <v>0.27</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="8">
         <v>5</v>
       </c>
-      <c r="R10" s="9">
-        <v>5</v>
-      </c>
-      <c r="S10" s="9">
-        <v>5</v>
-      </c>
-      <c r="W10" s="21">
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="Y10" s="21">
         <v>1.7949999999999999</v>
       </c>
-      <c r="X10" s="21">
+      <c r="Z10" s="21">
         <v>4.0309999999999997</v>
       </c>
-      <c r="Y10" s="21">
+      <c r="AA10" s="21">
         <v>1.5409999999999999</v>
       </c>
-      <c r="Z10" s="21">
+      <c r="AB10" s="21">
         <f>SUM(L10:O10)</f>
         <v>6.6059999999999999</v>
       </c>
-      <c r="AA10" s="8">
-        <f>SUM(P10:S10)</f>
-        <v>15.27</v>
-      </c>
-      <c r="AB10" s="9">
+      <c r="AC10" s="8">
+        <v>15</v>
+      </c>
+      <c r="AD10" s="9">
         <v>20</v>
-      </c>
-      <c r="AC10" s="9">
-        <v>50</v>
-      </c>
-      <c r="AD10" s="9">
-        <v>50</v>
       </c>
       <c r="AE10" s="9">
         <v>50</v>
@@ -3466,8 +3740,14 @@
       <c r="AK10" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="AL10" s="9">
+        <v>50</v>
+      </c>
+      <c r="AM10" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:137" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>62</v>
       </c>
@@ -3493,49 +3773,40 @@
       <c r="O11" s="9">
         <v>-1</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="9">
         <v>-2</v>
       </c>
-      <c r="Q11" s="9">
-        <v>-21</v>
-      </c>
-      <c r="R11" s="9">
-        <v>-22</v>
-      </c>
-      <c r="S11" s="9">
-        <v>-26</v>
-      </c>
-      <c r="W11" s="21">
+      <c r="Q11" s="8">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="Y11" s="21">
         <v>-5.4909999999999997</v>
       </c>
-      <c r="X11" s="21">
+      <c r="Z11" s="21">
         <v>-9.6809999999999992</v>
       </c>
-      <c r="Y11" s="21">
+      <c r="AA11" s="21">
         <v>-4.4859999999999998</v>
       </c>
-      <c r="Z11" s="21">
+      <c r="AB11" s="21">
         <f>SUM(L11:O11)</f>
         <v>-6.5869999999999997</v>
       </c>
-      <c r="AA11" s="8">
-        <f>SUM(P11:S11)</f>
+      <c r="AC11" s="8">
         <v>-71</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AD11" s="9">
         <v>-20</v>
       </c>
-      <c r="AC11" s="9">
+      <c r="AE11" s="9">
         <v>-150</v>
       </c>
-      <c r="AD11" s="9">
+      <c r="AF11" s="9">
         <v>-50</v>
-      </c>
-      <c r="AE11" s="9">
-        <v>-70</v>
-      </c>
-      <c r="AF11" s="9">
-        <v>-70</v>
       </c>
       <c r="AG11" s="9">
         <v>-70</v>
@@ -3552,13 +3823,19 @@
       <c r="AK11" s="9">
         <v>-70</v>
       </c>
-    </row>
-    <row r="12" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="AL11" s="9">
+        <v>-70</v>
+      </c>
+      <c r="AM11" s="9">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="3">
-        <v>11.51</v>
+        <v>11.87</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>63</v>
@@ -3590,87 +3867,83 @@
         <f t="shared" si="15"/>
         <v>39.710000000000008</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="9">
         <f t="shared" ref="P12" si="16">SUM(P9:P11)</f>
         <v>2.9640000000000022</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="8">
         <f t="shared" ref="Q12" si="17">SUM(Q9:Q11)</f>
-        <v>45</v>
-      </c>
-      <c r="R12" s="9">
-        <f t="shared" ref="R12" si="18">SUM(R9:R11)</f>
-        <v>45</v>
-      </c>
-      <c r="S12" s="9">
-        <f t="shared" ref="S12" si="19">SUM(S9:S11)</f>
-        <v>29</v>
-      </c>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
+        <v>168.20700000000005</v>
+      </c>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
       <c r="V12" s="21"/>
-      <c r="W12" s="21">
-        <f t="shared" ref="W12:X12" si="20">SUM(W9:W11)</f>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21">
+        <f t="shared" ref="Y12:Z12" si="18">SUM(Y9:Y11)</f>
         <v>7.4380000000000042</v>
       </c>
-      <c r="X12" s="21">
-        <f t="shared" si="20"/>
+      <c r="Z12" s="21">
+        <f t="shared" si="18"/>
         <v>35.541000000000011</v>
       </c>
-      <c r="Y12" s="21">
-        <f t="shared" ref="Y12" si="21">SUM(Y9:Y11)</f>
+      <c r="AA12" s="21">
+        <f t="shared" ref="AA12" si="19">SUM(AA9:AA11)</f>
         <v>11.498000000000005</v>
       </c>
-      <c r="Z12" s="21">
-        <f t="shared" ref="Z12" si="22">SUM(Z9:Z11)</f>
+      <c r="AB12" s="21">
+        <f t="shared" ref="AB12" si="20">SUM(AB9:AB11)</f>
         <v>70.350000000000009</v>
       </c>
-      <c r="AA12" s="23">
-        <f t="shared" ref="AA12" si="23">SUM(AA9:AA11)</f>
-        <v>121.964</v>
-      </c>
-      <c r="AB12" s="21">
-        <f t="shared" ref="AB12" si="24">SUM(AB9:AB11)</f>
+      <c r="AC12" s="23">
+        <f t="shared" ref="AC12" si="21">SUM(AC9:AC11)</f>
+        <v>266</v>
+      </c>
+      <c r="AD12" s="21">
+        <f t="shared" ref="AD12" si="22">SUM(AD9:AD11)</f>
         <v>313</v>
       </c>
-      <c r="AC12" s="21">
-        <f t="shared" ref="AC12" si="25">SUM(AC9:AC11)</f>
+      <c r="AE12" s="21">
+        <f t="shared" ref="AE12" si="23">SUM(AE9:AE11)</f>
         <v>512</v>
       </c>
-      <c r="AD12" s="21">
-        <f t="shared" ref="AD12" si="26">SUM(AD9:AD11)</f>
-        <v>663.2</v>
-      </c>
-      <c r="AE12" s="21">
-        <f t="shared" ref="AE12" si="27">SUM(AE9:AE11)</f>
-        <v>697.51999999999987</v>
-      </c>
       <c r="AF12" s="21">
-        <f t="shared" ref="AF12" si="28">SUM(AF9:AF11)</f>
-        <v>754.87200000000007</v>
+        <f t="shared" ref="AF12" si="24">SUM(AF9:AF11)</f>
+        <v>653.89999999999986</v>
       </c>
       <c r="AG12" s="21">
-        <f t="shared" ref="AG12" si="29">SUM(AG9:AG11)</f>
-        <v>815.07920000000036</v>
+        <f t="shared" ref="AG12" si="25">SUM(AG9:AG11)</f>
+        <v>657.79499999999996</v>
       </c>
       <c r="AH12" s="21">
-        <f t="shared" ref="AH12" si="30">SUM(AH9:AH11)</f>
-        <v>877.85112000000049</v>
+        <f t="shared" ref="AH12" si="26">SUM(AH9:AH11)</f>
+        <v>682.00474999999983</v>
       </c>
       <c r="AI12" s="21">
-        <f t="shared" ref="AI12" si="31">SUM(AI9:AI11)</f>
-        <v>942.75303200000087</v>
+        <f t="shared" ref="AI12" si="27">SUM(AI9:AI11)</f>
+        <v>706.45698749999985</v>
       </c>
       <c r="AJ12" s="21">
-        <f t="shared" ref="AJ12" si="32">SUM(AJ9:AJ11)</f>
-        <v>1009.168495200001</v>
+        <f t="shared" ref="AJ12" si="28">SUM(AJ9:AJ11)</f>
+        <v>731.06703687499976</v>
       </c>
       <c r="AK12" s="21">
-        <f t="shared" ref="AK12" si="33">SUM(AK9:AK11)</f>
-        <v>1076.2535367200014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:135" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AK12" si="29">SUM(AK9:AK11)</f>
+        <v>755.73630871874991</v>
+      </c>
+      <c r="AL12" s="21">
+        <f t="shared" ref="AL12" si="30">SUM(AL9:AL11)</f>
+        <v>780.35063615468766</v>
+      </c>
+      <c r="AM12" s="21">
+        <f t="shared" ref="AM12" si="31">SUM(AM9:AM11)</f>
+        <v>804.77843116242184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:137" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>64</v>
       </c>
@@ -3696,74 +3969,72 @@
       <c r="O13" s="9">
         <v>-1</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="9">
         <v>-1.2</v>
       </c>
-      <c r="Q13" s="9">
-        <v>-0.5</v>
-      </c>
-      <c r="R13" s="9">
-        <v>-0.5</v>
-      </c>
-      <c r="S13" s="9">
-        <v>-0.5</v>
-      </c>
-      <c r="W13" s="21">
+      <c r="Q13" s="8">
+        <v>-2</v>
+      </c>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="Y13" s="21">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="X13" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="21">
-        <v>0</v>
-      </c>
       <c r="Z13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="21">
         <f>SUM(L13:O13)</f>
         <v>-2.6189999999999998</v>
       </c>
-      <c r="AA13" s="8">
+      <c r="AC13" s="8">
         <v>-2</v>
       </c>
-      <c r="AB13" s="9">
+      <c r="AD13" s="9">
         <v>-6</v>
       </c>
-      <c r="AC13" s="9">
+      <c r="AE13" s="9">
         <v>-10</v>
       </c>
-      <c r="AD13" s="9">
-        <f>AD12*-0.22</f>
-        <v>-145.90400000000002</v>
-      </c>
-      <c r="AE13" s="9">
-        <f t="shared" ref="AE13:AK13" si="34">AE12*-0.22</f>
-        <v>-153.45439999999996</v>
-      </c>
       <c r="AF13" s="9">
-        <f t="shared" si="34"/>
-        <v>-166.07184000000001</v>
+        <f>AF12*-0.22</f>
+        <v>-143.85799999999998</v>
       </c>
       <c r="AG13" s="9">
-        <f t="shared" si="34"/>
-        <v>-179.31742400000007</v>
+        <f t="shared" ref="AG13:AM13" si="32">AG12*-0.22</f>
+        <v>-144.7149</v>
       </c>
       <c r="AH13" s="9">
-        <f t="shared" si="34"/>
-        <v>-193.1272464000001</v>
+        <f t="shared" si="32"/>
+        <v>-150.04104499999997</v>
       </c>
       <c r="AI13" s="9">
-        <f t="shared" si="34"/>
-        <v>-207.4056670400002</v>
+        <f t="shared" si="32"/>
+        <v>-155.42053724999997</v>
       </c>
       <c r="AJ13" s="9">
-        <f t="shared" si="34"/>
-        <v>-222.01706894400021</v>
+        <f t="shared" si="32"/>
+        <v>-160.83474811249994</v>
       </c>
       <c r="AK13" s="9">
-        <f t="shared" si="34"/>
-        <v>-236.77577807840032</v>
-      </c>
-    </row>
-    <row r="14" spans="1:135" x14ac:dyDescent="0.25">
+        <f t="shared" si="32"/>
+        <v>-166.26198791812499</v>
+      </c>
+      <c r="AL13" s="9">
+        <f t="shared" si="32"/>
+        <v>-171.67713995403128</v>
+      </c>
+      <c r="AM13" s="9">
+        <f t="shared" si="32"/>
+        <v>-177.05125485573279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:137" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
         <v>65</v>
       </c>
@@ -3783,500 +4054,496 @@
         <v>-21.475999999999999</v>
       </c>
       <c r="M14" s="27">
-        <f t="shared" ref="M14:O14" si="35">SUM(M12:M13)</f>
+        <f t="shared" ref="M14:O14" si="33">SUM(M12:M13)</f>
         <v>21.799999999999997</v>
       </c>
       <c r="N14" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>27.300000000000004</v>
       </c>
       <c r="O14" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>38.710000000000008</v>
       </c>
-      <c r="P14" s="10">
-        <f t="shared" ref="P14" si="36">SUM(P12:P13)</f>
+      <c r="P14" s="27">
+        <f t="shared" ref="P14" si="34">SUM(P12:P13)</f>
         <v>1.7640000000000022</v>
       </c>
-      <c r="Q14" s="27">
-        <f t="shared" ref="Q14" si="37">SUM(Q12:Q13)</f>
-        <v>44.5</v>
-      </c>
-      <c r="R14" s="27">
-        <f t="shared" ref="R14" si="38">SUM(R12:R13)</f>
-        <v>44.5</v>
-      </c>
-      <c r="S14" s="27">
-        <f t="shared" ref="S14" si="39">SUM(S12:S13)</f>
-        <v>28.5</v>
-      </c>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
+      <c r="Q14" s="10">
+        <f t="shared" ref="Q14" si="35">SUM(Q12:Q13)</f>
+        <v>166.20700000000005</v>
+      </c>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
       <c r="V14" s="22"/>
-      <c r="W14" s="22">
-        <f t="shared" ref="W14:X14" si="40">SUM(W12:W13)</f>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22">
+        <f t="shared" ref="Y14:Z14" si="36">SUM(Y12:Y13)</f>
         <v>7.4510000000000041</v>
       </c>
-      <c r="X14" s="22">
-        <f t="shared" si="40"/>
+      <c r="Z14" s="22">
+        <f t="shared" si="36"/>
         <v>35.541000000000011</v>
       </c>
-      <c r="Y14" s="22">
-        <f t="shared" ref="Y14" si="41">SUM(Y12:Y13)</f>
+      <c r="AA14" s="22">
+        <f t="shared" ref="AA14" si="37">SUM(AA12:AA13)</f>
         <v>11.498000000000005</v>
       </c>
-      <c r="Z14" s="22">
-        <f t="shared" ref="Z14" si="42">SUM(Z12:Z13)</f>
+      <c r="AB14" s="22">
+        <f t="shared" ref="AB14" si="38">SUM(AB12:AB13)</f>
         <v>67.731000000000009</v>
       </c>
-      <c r="AA14" s="24">
-        <f t="shared" ref="AA14" si="43">SUM(AA12:AA13)</f>
-        <v>119.964</v>
-      </c>
-      <c r="AB14" s="22">
-        <f t="shared" ref="AB14" si="44">SUM(AB12:AB13)</f>
+      <c r="AC14" s="24">
+        <f t="shared" ref="AC14" si="39">SUM(AC12:AC13)</f>
+        <v>264</v>
+      </c>
+      <c r="AD14" s="22">
+        <f t="shared" ref="AD14" si="40">SUM(AD12:AD13)</f>
         <v>307</v>
       </c>
-      <c r="AC14" s="22">
-        <f t="shared" ref="AC14" si="45">SUM(AC12:AC13)</f>
+      <c r="AE14" s="22">
+        <f t="shared" ref="AE14" si="41">SUM(AE12:AE13)</f>
         <v>502</v>
       </c>
-      <c r="AD14" s="22">
-        <f t="shared" ref="AD14" si="46">SUM(AD12:AD13)</f>
-        <v>517.29600000000005</v>
-      </c>
-      <c r="AE14" s="22">
-        <f t="shared" ref="AE14" si="47">SUM(AE12:AE13)</f>
-        <v>544.0655999999999</v>
-      </c>
       <c r="AF14" s="22">
-        <f t="shared" ref="AF14" si="48">SUM(AF12:AF13)</f>
-        <v>588.80016000000001</v>
+        <f t="shared" ref="AF14" si="42">SUM(AF12:AF13)</f>
+        <v>510.04199999999992</v>
       </c>
       <c r="AG14" s="22">
-        <f t="shared" ref="AG14" si="49">SUM(AG12:AG13)</f>
-        <v>635.76177600000028</v>
+        <f t="shared" ref="AG14" si="43">SUM(AG12:AG13)</f>
+        <v>513.0800999999999</v>
       </c>
       <c r="AH14" s="22">
-        <f t="shared" ref="AH14" si="50">SUM(AH12:AH13)</f>
-        <v>684.72387360000039</v>
+        <f t="shared" ref="AH14" si="44">SUM(AH12:AH13)</f>
+        <v>531.96370499999989</v>
       </c>
       <c r="AI14" s="22">
-        <f t="shared" ref="AI14" si="51">SUM(AI12:AI13)</f>
-        <v>735.34736496000073</v>
+        <f t="shared" ref="AI14" si="45">SUM(AI12:AI13)</f>
+        <v>551.03645024999992</v>
       </c>
       <c r="AJ14" s="22">
-        <f t="shared" ref="AJ14" si="52">SUM(AJ12:AJ13)</f>
-        <v>787.15142625600072</v>
+        <f t="shared" ref="AJ14" si="46">SUM(AJ12:AJ13)</f>
+        <v>570.23228876249982</v>
       </c>
       <c r="AK14" s="22">
-        <f t="shared" ref="AK14" si="53">SUM(AK12:AK13)</f>
-        <v>839.4777586416011</v>
-      </c>
-      <c r="AL14" s="27">
-        <f>AK14*(1+$AN$18)</f>
-        <v>831.08298105518509</v>
-      </c>
-      <c r="AM14" s="27">
-        <f t="shared" ref="AM14:CX14" si="54">AL14*(1+$AN$18)</f>
-        <v>822.77215124463328</v>
+        <f t="shared" ref="AK14" si="47">SUM(AK12:AK13)</f>
+        <v>589.47432080062492</v>
+      </c>
+      <c r="AL14" s="22">
+        <f t="shared" ref="AL14" si="48">SUM(AL12:AL13)</f>
+        <v>608.67349620065636</v>
+      </c>
+      <c r="AM14" s="22">
+        <f t="shared" ref="AM14" si="49">SUM(AM12:AM13)</f>
+        <v>627.72717630668899</v>
       </c>
       <c r="AN14" s="27">
-        <f t="shared" si="54"/>
-        <v>814.54442973218693</v>
+        <f>AM14*(1+$AP$18)</f>
+        <v>621.4499045436221</v>
       </c>
       <c r="AO14" s="27">
-        <f t="shared" si="54"/>
-        <v>806.39898543486504</v>
+        <f t="shared" ref="AO14:CZ14" si="50">AN14*(1+$AP$18)</f>
+        <v>615.23540549818586</v>
       </c>
       <c r="AP14" s="27">
-        <f t="shared" si="54"/>
-        <v>798.33499558051642</v>
+        <f t="shared" si="50"/>
+        <v>609.083051443204</v>
       </c>
       <c r="AQ14" s="27">
-        <f t="shared" si="54"/>
-        <v>790.3516456247113</v>
+        <f t="shared" si="50"/>
+        <v>602.99222092877199</v>
       </c>
       <c r="AR14" s="27">
-        <f t="shared" si="54"/>
-        <v>782.44812916846422</v>
+        <f t="shared" si="50"/>
+        <v>596.96229871948424</v>
       </c>
       <c r="AS14" s="27">
-        <f t="shared" si="54"/>
-        <v>774.62364787677961</v>
+        <f t="shared" si="50"/>
+        <v>590.9926757322894</v>
       </c>
       <c r="AT14" s="27">
-        <f t="shared" si="54"/>
-        <v>766.87741139801176</v>
+        <f t="shared" si="50"/>
+        <v>585.08274897496653</v>
       </c>
       <c r="AU14" s="27">
-        <f t="shared" si="54"/>
-        <v>759.20863728403162</v>
+        <f t="shared" si="50"/>
+        <v>579.23192148521684</v>
       </c>
       <c r="AV14" s="27">
-        <f t="shared" si="54"/>
-        <v>751.61655091119133</v>
+        <f t="shared" si="50"/>
+        <v>573.43960227036462</v>
       </c>
       <c r="AW14" s="27">
-        <f t="shared" si="54"/>
-        <v>744.10038540207938</v>
+        <f t="shared" si="50"/>
+        <v>567.70520624766095</v>
       </c>
       <c r="AX14" s="27">
-        <f t="shared" si="54"/>
-        <v>736.6593815480586</v>
+        <f t="shared" si="50"/>
+        <v>562.02815418518435</v>
       </c>
       <c r="AY14" s="27">
-        <f t="shared" si="54"/>
-        <v>729.29278773257806</v>
+        <f t="shared" si="50"/>
+        <v>556.40787264333255</v>
       </c>
       <c r="AZ14" s="27">
-        <f t="shared" si="54"/>
-        <v>721.99985985525223</v>
+        <f t="shared" si="50"/>
+        <v>550.84379391689924</v>
       </c>
       <c r="BA14" s="27">
-        <f t="shared" si="54"/>
-        <v>714.77986125669975</v>
+        <f t="shared" si="50"/>
+        <v>545.33535597773027</v>
       </c>
       <c r="BB14" s="27">
-        <f t="shared" si="54"/>
-        <v>707.6320626441327</v>
+        <f t="shared" si="50"/>
+        <v>539.882002417953</v>
       </c>
       <c r="BC14" s="27">
-        <f t="shared" si="54"/>
-        <v>700.55574201769139</v>
+        <f t="shared" si="50"/>
+        <v>534.48318239377352</v>
       </c>
       <c r="BD14" s="27">
-        <f t="shared" si="54"/>
-        <v>693.55018459751443</v>
+        <f t="shared" si="50"/>
+        <v>529.13835056983578</v>
       </c>
       <c r="BE14" s="27">
-        <f t="shared" si="54"/>
-        <v>686.61468275153925</v>
+        <f t="shared" si="50"/>
+        <v>523.8469670641374</v>
       </c>
       <c r="BF14" s="27">
-        <f t="shared" si="54"/>
-        <v>679.74853592402383</v>
+        <f t="shared" si="50"/>
+        <v>518.60849739349601</v>
       </c>
       <c r="BG14" s="27">
-        <f t="shared" si="54"/>
-        <v>672.9510505647836</v>
+        <f t="shared" si="50"/>
+        <v>513.42241241956106</v>
       </c>
       <c r="BH14" s="27">
-        <f t="shared" si="54"/>
-        <v>666.2215400591358</v>
+        <f t="shared" si="50"/>
+        <v>508.28818829536544</v>
       </c>
       <c r="BI14" s="27">
-        <f t="shared" si="54"/>
-        <v>659.55932465854448</v>
+        <f t="shared" si="50"/>
+        <v>503.2053064124118</v>
       </c>
       <c r="BJ14" s="27">
-        <f t="shared" si="54"/>
-        <v>652.96373141195909</v>
+        <f t="shared" si="50"/>
+        <v>498.17325334828769</v>
       </c>
       <c r="BK14" s="27">
-        <f t="shared" si="54"/>
-        <v>646.43409409783953</v>
+        <f t="shared" si="50"/>
+        <v>493.19152081480479</v>
       </c>
       <c r="BL14" s="27">
-        <f t="shared" si="54"/>
-        <v>639.96975315686109</v>
+        <f t="shared" si="50"/>
+        <v>488.25960560665675</v>
       </c>
       <c r="BM14" s="27">
-        <f t="shared" si="54"/>
-        <v>633.57005562529253</v>
+        <f t="shared" si="50"/>
+        <v>483.37700955059017</v>
       </c>
       <c r="BN14" s="27">
-        <f t="shared" si="54"/>
-        <v>627.23435506903957</v>
+        <f t="shared" si="50"/>
+        <v>478.54323945508429</v>
       </c>
       <c r="BO14" s="27">
-        <f t="shared" si="54"/>
-        <v>620.96201151834919</v>
+        <f t="shared" si="50"/>
+        <v>473.75780706053342</v>
       </c>
       <c r="BP14" s="27">
-        <f t="shared" si="54"/>
-        <v>614.75239140316569</v>
+        <f t="shared" si="50"/>
+        <v>469.02022898992806</v>
       </c>
       <c r="BQ14" s="27">
-        <f t="shared" si="54"/>
-        <v>608.60486748913399</v>
+        <f t="shared" si="50"/>
+        <v>464.33002670002878</v>
       </c>
       <c r="BR14" s="27">
-        <f t="shared" si="54"/>
-        <v>602.51881881424265</v>
+        <f t="shared" si="50"/>
+        <v>459.68672643302847</v>
       </c>
       <c r="BS14" s="27">
-        <f t="shared" si="54"/>
-        <v>596.49363062610018</v>
+        <f t="shared" si="50"/>
+        <v>455.08985916869818</v>
       </c>
       <c r="BT14" s="27">
-        <f t="shared" si="54"/>
-        <v>590.52869431983913</v>
+        <f t="shared" si="50"/>
+        <v>450.53896057701121</v>
       </c>
       <c r="BU14" s="27">
-        <f t="shared" si="54"/>
-        <v>584.62340737664078</v>
+        <f t="shared" si="50"/>
+        <v>446.03357097124109</v>
       </c>
       <c r="BV14" s="27">
-        <f t="shared" si="54"/>
-        <v>578.77717330287442</v>
+        <f t="shared" si="50"/>
+        <v>441.57323526152868</v>
       </c>
       <c r="BW14" s="27">
-        <f t="shared" si="54"/>
-        <v>572.98940156984565</v>
+        <f t="shared" si="50"/>
+        <v>437.15750290891339</v>
       </c>
       <c r="BX14" s="27">
-        <f t="shared" si="54"/>
-        <v>567.25950755414715</v>
+        <f t="shared" si="50"/>
+        <v>432.78592787982427</v>
       </c>
       <c r="BY14" s="27">
-        <f t="shared" si="54"/>
-        <v>561.58691247860565</v>
+        <f t="shared" si="50"/>
+        <v>428.45806860102601</v>
       </c>
       <c r="BZ14" s="27">
-        <f t="shared" si="54"/>
-        <v>555.9710433538196</v>
+        <f t="shared" si="50"/>
+        <v>424.17348791501576</v>
       </c>
       <c r="CA14" s="27">
-        <f t="shared" si="54"/>
-        <v>550.41133292028144</v>
+        <f t="shared" si="50"/>
+        <v>419.9317530358656</v>
       </c>
       <c r="CB14" s="27">
-        <f t="shared" si="54"/>
-        <v>544.90721959107861</v>
+        <f t="shared" si="50"/>
+        <v>415.73243550550694</v>
       </c>
       <c r="CC14" s="27">
-        <f t="shared" si="54"/>
-        <v>539.45814739516777</v>
+        <f t="shared" si="50"/>
+        <v>411.57511115045185</v>
       </c>
       <c r="CD14" s="27">
-        <f t="shared" si="54"/>
-        <v>534.06356592121608</v>
+        <f t="shared" si="50"/>
+        <v>407.45936003894735</v>
       </c>
       <c r="CE14" s="27">
-        <f t="shared" si="54"/>
-        <v>528.72293026200396</v>
+        <f t="shared" si="50"/>
+        <v>403.38476643855785</v>
       </c>
       <c r="CF14" s="27">
-        <f t="shared" si="54"/>
-        <v>523.43570095938389</v>
+        <f t="shared" si="50"/>
+        <v>399.35091877417227</v>
       </c>
       <c r="CG14" s="27">
-        <f t="shared" si="54"/>
-        <v>518.20134394979004</v>
+        <f t="shared" si="50"/>
+        <v>395.35740958643055</v>
       </c>
       <c r="CH14" s="27">
-        <f t="shared" si="54"/>
-        <v>513.01933051029209</v>
+        <f t="shared" si="50"/>
+        <v>391.40383549056622</v>
       </c>
       <c r="CI14" s="27">
-        <f t="shared" si="54"/>
-        <v>507.88913720518917</v>
+        <f t="shared" si="50"/>
+        <v>387.48979713566058</v>
       </c>
       <c r="CJ14" s="27">
-        <f t="shared" si="54"/>
-        <v>502.81024583313729</v>
+        <f t="shared" si="50"/>
+        <v>383.61489916430395</v>
       </c>
       <c r="CK14" s="27">
-        <f t="shared" si="54"/>
-        <v>497.78214337480591</v>
+        <f t="shared" si="50"/>
+        <v>379.77875017266092</v>
       </c>
       <c r="CL14" s="27">
-        <f t="shared" si="54"/>
-        <v>492.80432194105782</v>
+        <f t="shared" si="50"/>
+        <v>375.98096267093433</v>
       </c>
       <c r="CM14" s="27">
-        <f t="shared" si="54"/>
-        <v>487.87627872164722</v>
+        <f t="shared" si="50"/>
+        <v>372.22115304422499</v>
       </c>
       <c r="CN14" s="27">
-        <f t="shared" si="54"/>
-        <v>482.99751593443074</v>
+        <f t="shared" si="50"/>
+        <v>368.49894151378271</v>
       </c>
       <c r="CO14" s="27">
-        <f t="shared" si="54"/>
-        <v>478.16754077508642</v>
+        <f t="shared" si="50"/>
+        <v>364.8139520986449</v>
       </c>
       <c r="CP14" s="27">
-        <f t="shared" si="54"/>
-        <v>473.38586536733555</v>
+        <f t="shared" si="50"/>
+        <v>361.16581257765847</v>
       </c>
       <c r="CQ14" s="27">
-        <f t="shared" si="54"/>
-        <v>468.65200671366222</v>
+        <f t="shared" si="50"/>
+        <v>357.55415445188186</v>
       </c>
       <c r="CR14" s="27">
-        <f t="shared" si="54"/>
-        <v>463.96548664652562</v>
+        <f t="shared" si="50"/>
+        <v>353.97861290736301</v>
       </c>
       <c r="CS14" s="27">
-        <f t="shared" si="54"/>
-        <v>459.32583178006035</v>
+        <f t="shared" si="50"/>
+        <v>350.43882677828935</v>
       </c>
       <c r="CT14" s="27">
-        <f t="shared" si="54"/>
-        <v>454.73257346225972</v>
+        <f t="shared" si="50"/>
+        <v>346.93443851050648</v>
       </c>
       <c r="CU14" s="27">
-        <f t="shared" si="54"/>
-        <v>450.18524772763715</v>
+        <f t="shared" si="50"/>
+        <v>343.46509412540144</v>
       </c>
       <c r="CV14" s="27">
-        <f t="shared" si="54"/>
-        <v>445.68339525036077</v>
+        <f t="shared" si="50"/>
+        <v>340.03044318414743</v>
       </c>
       <c r="CW14" s="27">
-        <f t="shared" si="54"/>
-        <v>441.22656129785719</v>
+        <f t="shared" si="50"/>
+        <v>336.63013875230592</v>
       </c>
       <c r="CX14" s="27">
-        <f t="shared" si="54"/>
-        <v>436.81429568487863</v>
+        <f t="shared" si="50"/>
+        <v>333.26383736478289</v>
       </c>
       <c r="CY14" s="27">
-        <f t="shared" ref="CY14:EE14" si="55">CX14*(1+$AN$18)</f>
-        <v>432.44615272802986</v>
+        <f t="shared" si="50"/>
+        <v>329.93119899113503</v>
       </c>
       <c r="CZ14" s="27">
-        <f t="shared" si="55"/>
-        <v>428.12169120074958</v>
+        <f t="shared" si="50"/>
+        <v>326.63188700122367</v>
       </c>
       <c r="DA14" s="27">
-        <f t="shared" si="55"/>
-        <v>423.84047428874209</v>
+        <f t="shared" ref="DA14:EG14" si="51">CZ14*(1+$AP$18)</f>
+        <v>323.36556813121143</v>
       </c>
       <c r="DB14" s="27">
-        <f t="shared" si="55"/>
-        <v>419.60206954585465</v>
+        <f t="shared" si="51"/>
+        <v>320.13191244989929</v>
       </c>
       <c r="DC14" s="27">
-        <f t="shared" si="55"/>
-        <v>415.40604885039608</v>
+        <f t="shared" si="51"/>
+        <v>316.93059332540031</v>
       </c>
       <c r="DD14" s="27">
-        <f t="shared" si="55"/>
-        <v>411.25198836189213</v>
+        <f t="shared" si="51"/>
+        <v>313.7612873921463</v>
       </c>
       <c r="DE14" s="27">
-        <f t="shared" si="55"/>
-        <v>407.13946847827322</v>
+        <f t="shared" si="51"/>
+        <v>310.62367451822485</v>
       </c>
       <c r="DF14" s="27">
-        <f t="shared" si="55"/>
-        <v>403.0680737934905</v>
+        <f t="shared" si="51"/>
+        <v>307.51743777304262</v>
       </c>
       <c r="DG14" s="27">
-        <f t="shared" si="55"/>
-        <v>399.03739305555558</v>
+        <f t="shared" si="51"/>
+        <v>304.44226339531218</v>
       </c>
       <c r="DH14" s="27">
-        <f t="shared" si="55"/>
-        <v>395.04701912500002</v>
+        <f t="shared" si="51"/>
+        <v>301.39784076135908</v>
       </c>
       <c r="DI14" s="27">
-        <f t="shared" si="55"/>
-        <v>391.09654893375</v>
+        <f t="shared" si="51"/>
+        <v>298.38386235374549</v>
       </c>
       <c r="DJ14" s="27">
-        <f t="shared" si="55"/>
-        <v>387.18558344441249</v>
+        <f t="shared" si="51"/>
+        <v>295.40002373020803</v>
       </c>
       <c r="DK14" s="27">
-        <f t="shared" si="55"/>
-        <v>383.31372760996834</v>
+        <f t="shared" si="51"/>
+        <v>292.44602349290597</v>
       </c>
       <c r="DL14" s="27">
-        <f t="shared" si="55"/>
-        <v>379.48059033386863</v>
+        <f t="shared" si="51"/>
+        <v>289.52156325797688</v>
       </c>
       <c r="DM14" s="27">
-        <f t="shared" si="55"/>
-        <v>375.68578443052996</v>
+        <f t="shared" si="51"/>
+        <v>286.6263476253971</v>
       </c>
       <c r="DN14" s="27">
-        <f t="shared" si="55"/>
-        <v>371.92892658622463</v>
+        <f t="shared" si="51"/>
+        <v>283.76008414914315</v>
       </c>
       <c r="DO14" s="27">
-        <f t="shared" si="55"/>
-        <v>368.20963732036239</v>
+        <f t="shared" si="51"/>
+        <v>280.9224833076517</v>
       </c>
       <c r="DP14" s="27">
-        <f t="shared" si="55"/>
-        <v>364.52754094715874</v>
+        <f t="shared" si="51"/>
+        <v>278.11325847457516</v>
       </c>
       <c r="DQ14" s="27">
-        <f t="shared" si="55"/>
-        <v>360.88226553768715</v>
+        <f t="shared" si="51"/>
+        <v>275.3321258898294</v>
       </c>
       <c r="DR14" s="27">
-        <f t="shared" si="55"/>
-        <v>357.27344288231029</v>
+        <f t="shared" si="51"/>
+        <v>272.57880463093107</v>
       </c>
       <c r="DS14" s="27">
-        <f t="shared" si="55"/>
-        <v>353.70070845348721</v>
+        <f t="shared" si="51"/>
+        <v>269.85301658462174</v>
       </c>
       <c r="DT14" s="27">
-        <f t="shared" si="55"/>
-        <v>350.16370136895233</v>
+        <f t="shared" si="51"/>
+        <v>267.15448641877555</v>
       </c>
       <c r="DU14" s="27">
-        <f t="shared" si="55"/>
-        <v>346.66206435526283</v>
+        <f t="shared" si="51"/>
+        <v>264.4829415545878</v>
       </c>
       <c r="DV14" s="27">
-        <f t="shared" si="55"/>
-        <v>343.1954437117102</v>
+        <f t="shared" si="51"/>
+        <v>261.83811213904193</v>
       </c>
       <c r="DW14" s="27">
-        <f t="shared" si="55"/>
-        <v>339.7634892745931</v>
+        <f t="shared" si="51"/>
+        <v>259.2197310176515</v>
       </c>
       <c r="DX14" s="27">
-        <f t="shared" si="55"/>
-        <v>336.36585438184716</v>
+        <f t="shared" si="51"/>
+        <v>256.62753370747498</v>
       </c>
       <c r="DY14" s="27">
-        <f t="shared" si="55"/>
-        <v>333.00219583802868</v>
+        <f t="shared" si="51"/>
+        <v>254.06125837040022</v>
       </c>
       <c r="DZ14" s="27">
-        <f t="shared" si="55"/>
-        <v>329.67217387964837</v>
+        <f t="shared" si="51"/>
+        <v>251.52064578669621</v>
       </c>
       <c r="EA14" s="27">
-        <f t="shared" si="55"/>
-        <v>326.37545214085191</v>
+        <f t="shared" si="51"/>
+        <v>249.00543932882925</v>
       </c>
       <c r="EB14" s="27">
-        <f t="shared" si="55"/>
-        <v>323.11169761944336</v>
+        <f t="shared" si="51"/>
+        <v>246.51538493554096</v>
       </c>
       <c r="EC14" s="27">
-        <f t="shared" si="55"/>
-        <v>319.88058064324895</v>
+        <f t="shared" si="51"/>
+        <v>244.05023108618556</v>
       </c>
       <c r="ED14" s="27">
-        <f t="shared" si="55"/>
-        <v>316.68177483681643</v>
+        <f t="shared" si="51"/>
+        <v>241.6097287753237</v>
       </c>
       <c r="EE14" s="27">
-        <f t="shared" si="55"/>
-        <v>313.51495708844828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:135" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>239.19363148757046</v>
+      </c>
+      <c r="EF14" s="27">
+        <f t="shared" si="51"/>
+        <v>236.80169517269476</v>
+      </c>
+      <c r="EG14" s="27">
+        <f t="shared" si="51"/>
+        <v>234.43367822096781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:137" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H15" s="2">
         <v>342</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="13">
         <v>342</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="13">
         <v>342</v>
       </c>
       <c r="N15" s="13">
@@ -4285,10 +4552,10 @@
       <c r="O15" s="13">
         <v>350.957583</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="13">
         <v>350.957583</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="16">
         <v>350.957583</v>
       </c>
       <c r="R15" s="13">
@@ -4297,25 +4564,21 @@
       <c r="S15" s="13">
         <v>350.957583</v>
       </c>
-      <c r="W15" s="2">
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="Y15" s="2">
         <v>128</v>
       </c>
-      <c r="X15" s="13">
+      <c r="Z15" s="13">
         <v>155</v>
       </c>
-      <c r="Y15" s="13">
+      <c r="AA15" s="13">
         <v>203.957583</v>
-      </c>
-      <c r="Z15" s="13">
-        <v>350.957583</v>
-      </c>
-      <c r="AA15" s="16">
-        <v>350.957583</v>
       </c>
       <c r="AB15" s="13">
         <v>350.957583</v>
       </c>
-      <c r="AC15" s="13">
+      <c r="AC15" s="16">
         <v>350.957583</v>
       </c>
       <c r="AD15" s="13">
@@ -4342,117 +4605,125 @@
       <c r="AK15" s="13">
         <v>350.957583</v>
       </c>
-    </row>
-    <row r="16" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="AL15" s="13">
+        <v>350.957583</v>
+      </c>
+      <c r="AM15" s="13">
+        <v>350.957583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:137" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H16" s="12">
-        <f t="shared" ref="H16" si="56">(H14/H15)*$B$12</f>
-        <v>6.7949385964912221E-2</v>
+        <f t="shared" ref="H16" si="52">(H14/H15)*$B$12</f>
+        <v>7.0074649122806948E-2</v>
       </c>
       <c r="L16" s="12">
-        <f t="shared" ref="L16:N16" si="57">(L14/L15)*$B$12</f>
-        <v>-0.72277415204678364</v>
+        <f t="shared" ref="L16:N16" si="53">(L14/L15)*$B$12</f>
+        <v>-0.74538046783625733</v>
       </c>
       <c r="M16" s="12">
         <f>(M14/M15)*$B$12</f>
-        <v>0.73367836257309926</v>
+        <v>0.75662573099415187</v>
       </c>
       <c r="N16" s="12">
-        <f t="shared" si="57"/>
-        <v>0.8953304194598356</v>
+        <f t="shared" si="53"/>
+        <v>0.92333380356109884</v>
       </c>
       <c r="O16" s="12">
         <f>(O14/O15)*$B$12</f>
-        <v>1.2695326204135617</v>
-      </c>
-      <c r="P16" s="5">
+        <v>1.3092399829981736</v>
+      </c>
+      <c r="P16" s="12">
         <f>(P14/P15)*$B$12</f>
-        <v>5.7852119411250978E-2</v>
-      </c>
-      <c r="Q16" s="12">
-        <f t="shared" ref="Q16:S16" si="58">(Q14/Q15)*$B$12</f>
-        <v>1.4594213797055926</v>
+        <v>5.966156884548645E-2</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" ref="Q16:S16" si="54">(Q14/Q15)*$B$12</f>
+        <v>5.6214117761347824</v>
       </c>
       <c r="R16" s="12">
-        <f t="shared" si="58"/>
-        <v>1.4594213797055926</v>
+        <f t="shared" si="54"/>
+        <v>0</v>
       </c>
       <c r="S16" s="12">
-        <f t="shared" si="58"/>
-        <v>0.93468560273279522</v>
-      </c>
-      <c r="W16" s="12">
-        <f>(W14/W15)*$B$12</f>
-        <v>0.67000789062500032</v>
-      </c>
-      <c r="X16" s="12">
-        <f t="shared" ref="X16:Y16" si="59">(X14/X15)*$B$12</f>
-        <v>2.6392058709677428</v>
-      </c>
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
       <c r="Y16" s="12">
-        <f t="shared" si="59"/>
-        <v>0.64887011335097089</v>
+        <f>(Y14/Y15)*$B$12</f>
+        <v>0.69096382812500035</v>
       </c>
       <c r="Z16" s="12">
-        <f>(Z14/Z15)*$B$12</f>
-        <v>2.2213049318840334</v>
-      </c>
-      <c r="AA16" s="5">
-        <f t="shared" ref="AA16:AK16" si="60">(AA14/AA15)*$B$12</f>
-        <v>3.9343376717977905</v>
+        <f t="shared" ref="Z16:AA16" si="55">(Z14/Z15)*$B$12</f>
+        <v>2.7217527096774199</v>
+      </c>
+      <c r="AA16" s="12">
+        <f t="shared" si="55"/>
+        <v>0.6691649214140768</v>
       </c>
       <c r="AB16" s="12">
-        <f t="shared" si="60"/>
-        <v>10.068367720665549</v>
-      </c>
-      <c r="AC16" s="12">
-        <f t="shared" si="60"/>
-        <v>16.463585002521516</v>
+        <f>(AB14/AB15)*$B$12</f>
+        <v>2.290781020109772</v>
+      </c>
+      <c r="AC16" s="5">
+        <f>(AC14/AC15)*$B$12</f>
+        <v>8.9289422761952402</v>
       </c>
       <c r="AD16" s="12">
-        <f t="shared" si="60"/>
-        <v>16.965232405307511</v>
+        <f t="shared" ref="AD16:AM16" si="56">(AD14/AD15)*$B$12</f>
+        <v>10.383277571181585</v>
       </c>
       <c r="AE16" s="12">
-        <f t="shared" si="60"/>
-        <v>17.843167833760695</v>
+        <f t="shared" si="56"/>
+        <v>16.978519025189431</v>
       </c>
       <c r="AF16" s="12">
-        <f t="shared" si="60"/>
-        <v>19.310281839956708</v>
+        <f t="shared" si="56"/>
+        <v>17.250513547102923</v>
       </c>
       <c r="AG16" s="12">
-        <f t="shared" si="60"/>
-        <v>20.850434343685354</v>
+        <f t="shared" si="56"/>
+        <v>17.353267408956366</v>
       </c>
       <c r="AH16" s="12">
-        <f t="shared" si="60"/>
-        <v>22.456194614082477</v>
+        <f t="shared" si="56"/>
+        <v>17.99194399612103</v>
       </c>
       <c r="AI16" s="12">
-        <f t="shared" si="60"/>
-        <v>24.116441931074071</v>
+        <f t="shared" si="56"/>
+        <v>18.637017637734012</v>
       </c>
       <c r="AJ16" s="12">
-        <f t="shared" si="60"/>
-        <v>25.815407203230503</v>
+        <f t="shared" si="56"/>
+        <v>19.28625450902673</v>
       </c>
       <c r="AK16" s="12">
-        <f t="shared" si="60"/>
-        <v>27.531500870761434</v>
-      </c>
-    </row>
-    <row r="17" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="AM17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN17" s="32">
+        <f t="shared" si="56"/>
+        <v>19.937053726243086</v>
+      </c>
+      <c r="AL16" s="12">
+        <f t="shared" si="56"/>
+        <v>20.586403456915164</v>
+      </c>
+      <c r="AM16" s="12">
+        <f t="shared" si="56"/>
+        <v>21.230832281975218</v>
+      </c>
+    </row>
+    <row r="17" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="AO17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP17" s="32">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>67</v>
       </c>
@@ -4468,227 +4739,213 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="63">
+      <c r="P18" s="56">
         <f>(P4-L4)/L4</f>
         <v>2.4460000000000002</v>
       </c>
-      <c r="Q18" s="56">
+      <c r="Q18" s="79">
         <f>(Q4-M4)/M4</f>
-        <v>1.2222222222222223</v>
+        <v>2.6993809523809529</v>
       </c>
       <c r="R18" s="56">
         <f>(R4-N4)/N4</f>
-        <v>0.72839506172839508</v>
+        <v>-1</v>
       </c>
       <c r="S18" s="56">
         <f>(S4-O4)/O4</f>
-        <v>0.45792997270755093</v>
-      </c>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
+        <v>-1</v>
+      </c>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
-      <c r="X18" s="57">
-        <f t="shared" ref="X18:AK18" si="61">(X4-W4)/W4</f>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="57">
+        <f t="shared" ref="Z18:AM18" si="57">(Z4-Y4)/Y4</f>
         <v>0.74643079851652505</v>
       </c>
-      <c r="Y18" s="57">
-        <f t="shared" si="61"/>
+      <c r="AA18" s="57">
+        <f t="shared" si="57"/>
         <v>2.0653236112155089E-2</v>
       </c>
-      <c r="Z18" s="57">
-        <f t="shared" si="61"/>
+      <c r="AB18" s="57">
+        <f t="shared" si="57"/>
         <v>1.2899412642006223</v>
       </c>
-      <c r="AA18" s="58">
-        <f t="shared" si="61"/>
-        <v>0.89144400935924539</v>
-      </c>
-      <c r="AB18" s="57">
-        <f t="shared" si="61"/>
-        <v>1.3997075290026655</v>
-      </c>
-      <c r="AC18" s="57">
-        <f t="shared" si="61"/>
+      <c r="AC18" s="58">
+        <f t="shared" si="57"/>
+        <v>1.4322781400509774</v>
+      </c>
+      <c r="AD18" s="57">
+        <f t="shared" si="57"/>
+        <v>0.86611570247933889</v>
+      </c>
+      <c r="AE18" s="57">
+        <f t="shared" si="57"/>
         <v>0.30380868024800711</v>
       </c>
-      <c r="AD18" s="57">
-        <f t="shared" si="61"/>
-        <v>0.10000000000000003</v>
-      </c>
-      <c r="AE18" s="57">
-        <f t="shared" si="61"/>
-        <v>0.10000000000000005</v>
-      </c>
       <c r="AF18" s="57">
-        <f t="shared" si="61"/>
-        <v>0.10000000000000003</v>
+        <f t="shared" si="57"/>
+        <v>7.4999999999999914E-2</v>
       </c>
       <c r="AG18" s="57">
-        <f t="shared" si="61"/>
-        <v>0.1000000000000002</v>
+        <f t="shared" si="57"/>
+        <v>5.0000000000000079E-2</v>
       </c>
       <c r="AH18" s="57">
-        <f t="shared" si="61"/>
-        <v>0.10000000000000014</v>
+        <f t="shared" si="57"/>
+        <v>5.0000000000000017E-2</v>
       </c>
       <c r="AI18" s="57">
-        <f t="shared" si="61"/>
-        <v>0.10000000000000007</v>
+        <f t="shared" si="57"/>
+        <v>5.0000000000000037E-2</v>
       </c>
       <c r="AJ18" s="57">
-        <f t="shared" si="61"/>
-        <v>0.10000000000000005</v>
+        <f t="shared" si="57"/>
+        <v>5.0000000000000037E-2</v>
       </c>
       <c r="AK18" s="57">
-        <f t="shared" si="61"/>
-        <v>0.10000000000000016</v>
-      </c>
-      <c r="AM18" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AN18" s="32">
+        <f t="shared" si="57"/>
+        <v>5.0000000000000065E-2</v>
+      </c>
+      <c r="AL18" s="57">
+        <f t="shared" si="57"/>
+        <v>5.0000000000000086E-2</v>
+      </c>
+      <c r="AM18" s="57">
+        <f t="shared" si="57"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP18" s="32">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="19" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L19" s="25">
-        <f t="shared" ref="L19:N19" si="62">L7/L4</f>
+        <f t="shared" ref="L19:N19" si="58">L7/L4</f>
         <v>-0.41994736842105257</v>
       </c>
       <c r="M19" s="25">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>0.52380952380952384</v>
       </c>
       <c r="N19" s="25">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>0.58888888888888891</v>
       </c>
       <c r="O19" s="25">
         <f>O7/O4</f>
         <v>0.60078378315332759</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="25">
         <f>P7/P4</f>
         <v>0.31945505085988335</v>
       </c>
-      <c r="Q19" s="25">
-        <f t="shared" ref="Q19:S19" si="63">Q7/Q4</f>
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="R19" s="25">
-        <f t="shared" si="63"/>
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="S19" s="25">
-        <f t="shared" si="63"/>
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="W19" s="25">
-        <f>W7/W4</f>
+      <c r="Q19" s="26">
+        <f t="shared" ref="Q19:S19" si="59">Q7/Q4</f>
+        <v>0.76110975238242362</v>
+      </c>
+      <c r="R19" s="25" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S19" s="25" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="Y19" s="25">
+        <f>Y7/Y4</f>
         <v>0.36199087597229979</v>
       </c>
-      <c r="X19" s="25">
-        <f t="shared" ref="X19:AJ19" si="64">X7/X4</f>
+      <c r="Z19" s="25">
+        <f t="shared" ref="Z19:AL19" si="60">Z7/Z4</f>
         <v>0.53453168458242506</v>
       </c>
-      <c r="Y19" s="25">
-        <f t="shared" si="64"/>
+      <c r="AA19" s="25">
+        <f t="shared" si="60"/>
         <v>0.45019425162490107</v>
       </c>
-      <c r="Z19" s="25">
-        <f>Z7/Z4</f>
+      <c r="AB19" s="25">
+        <f>AB7/AB4</f>
         <v>0.50506155070797387</v>
       </c>
-      <c r="AA19" s="26">
-        <f t="shared" si="64"/>
-        <v>0.6013424758860213</v>
-      </c>
-      <c r="AB19" s="25">
-        <f t="shared" si="64"/>
+      <c r="AC19" s="26">
+        <f t="shared" si="60"/>
+        <v>0.68099173553719006</v>
+      </c>
+      <c r="AD19" s="25">
+        <f t="shared" si="60"/>
         <v>0.48981399468556247</v>
       </c>
-      <c r="AC19" s="25">
-        <f t="shared" si="64"/>
+      <c r="AE19" s="25">
+        <f t="shared" si="60"/>
         <v>0.52445652173913049</v>
       </c>
-      <c r="AD19" s="25">
-        <f t="shared" si="64"/>
-        <v>0.51828063241106725</v>
-      </c>
-      <c r="AE19" s="25">
-        <f t="shared" si="64"/>
-        <v>0.51154329859863445</v>
-      </c>
       <c r="AF19" s="25">
-        <f t="shared" si="64"/>
-        <v>0.50419347989416263</v>
+        <f t="shared" si="60"/>
+        <v>0.52445652173913038</v>
       </c>
       <c r="AG19" s="25">
-        <f t="shared" si="64"/>
-        <v>0.49617549585292053</v>
+        <f t="shared" si="60"/>
+        <v>0.52445652173913038</v>
       </c>
       <c r="AH19" s="25">
-        <f t="shared" si="64"/>
-        <v>0.48742860417156547</v>
+        <f t="shared" si="60"/>
+        <v>0.52445652173913038</v>
       </c>
       <c r="AI19" s="25">
-        <f t="shared" si="64"/>
-        <v>0.47788654051917823</v>
+        <f t="shared" si="60"/>
+        <v>0.52445652173913038</v>
       </c>
       <c r="AJ19" s="25">
-        <f t="shared" si="64"/>
-        <v>0.46747701653475565</v>
+        <f t="shared" si="60"/>
+        <v>0.52445652173913038</v>
       </c>
       <c r="AK19" s="25">
-        <f t="shared" ref="AK19" si="65">AK7/AK4</f>
-        <v>0.45612117218811299</v>
-      </c>
-      <c r="AM19" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN19" s="9">
-        <f>NPV(AN17,AA14:EE14)</f>
-        <v>5966.6881903109288</v>
-      </c>
-    </row>
-    <row r="20" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9">
-        <v>1801</v>
-      </c>
-      <c r="M20" s="9">
-        <v>1915</v>
-      </c>
-      <c r="N20" s="9">
-        <v>2054</v>
-      </c>
-      <c r="O20" s="9">
-        <v>2336</v>
-      </c>
-      <c r="P20" s="3">
-        <v>2487</v>
-      </c>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
+        <f t="shared" si="60"/>
+        <v>0.52445652173913038</v>
+      </c>
+      <c r="AL19" s="25">
+        <f t="shared" si="60"/>
+        <v>0.52445652173913038</v>
+      </c>
+      <c r="AM19" s="25">
+        <f t="shared" ref="AM19" si="61">AM7/AM4</f>
+        <v>0.52445652173913038</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP19" s="9">
+        <f>NPV(AP17,AC14:EG14)</f>
+        <v>5071.6381675234143</v>
+      </c>
+    </row>
+    <row r="20" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
-      <c r="AA20" s="26"/>
+      <c r="AA20" s="25"/>
       <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
+      <c r="AC20" s="26"/>
       <c r="AD20" s="25"/>
       <c r="AE20" s="25"/>
       <c r="AF20" s="25"/>
@@ -4697,1848 +4954,2062 @@
       <c r="AI20" s="25"/>
       <c r="AJ20" s="25"/>
       <c r="AK20" s="25"/>
-      <c r="AM20" s="17" t="s">
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AO20" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP20" s="31">
+        <f>AP19*B12</f>
+        <v>60200.345048502924</v>
+      </c>
+    </row>
+    <row r="21" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="U21" s="25">
+        <v>0.246</v>
+      </c>
+      <c r="V21" s="25">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="W21" s="25">
+        <v>0.214</v>
+      </c>
+      <c r="X21" s="25">
+        <v>-0.23799999999999999</v>
+      </c>
+      <c r="Y21" s="25">
+        <v>2.7E-2</v>
+      </c>
+      <c r="Z21" s="25">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AA21" s="25">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AB21" s="25">
+        <v>0.06</v>
+      </c>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
+      <c r="AJ21" s="25"/>
+      <c r="AK21" s="25"/>
+      <c r="AO21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP21" s="12">
+        <v>350.957583</v>
+      </c>
+    </row>
+    <row r="22" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="25"/>
+      <c r="AO22" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AN20" s="31">
-        <f>AN19*B12</f>
-        <v>68676.581070478787</v>
-      </c>
-    </row>
-    <row r="21" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="AM21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN21" s="12">
-        <v>350.957583</v>
-      </c>
-    </row>
-    <row r="22" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="O22" s="21"/>
-      <c r="P22" s="23"/>
-      <c r="Y22" s="12"/>
-      <c r="AM22" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN22" s="13">
-        <f>AN20/AN21</f>
-        <v>195.6834227185762</v>
-      </c>
-    </row>
-    <row r="23" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="AP22" s="13">
+        <f>AP20/AP21</f>
+        <v>171.53168349835292</v>
+      </c>
+    </row>
+    <row r="23" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="9">
-        <v>16.946999999999999</v>
-      </c>
-      <c r="I23" s="9">
-        <v>16.946999999999999</v>
-      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9">
-        <v>17.236000000000001</v>
+        <v>1801</v>
       </c>
       <c r="M23" s="9">
-        <v>17.440000000000001</v>
+        <v>1915</v>
       </c>
       <c r="N23" s="9">
-        <v>16.72</v>
+        <v>2054</v>
       </c>
       <c r="O23" s="9">
-        <v>18.190000000000001</v>
-      </c>
-      <c r="P23" s="8">
-        <v>18.643999999999998</v>
-      </c>
-      <c r="AM23" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN23" s="33">
-        <f>(AN22-B4)/B4</f>
-        <v>2.7631427445880039</v>
-      </c>
-    </row>
-    <row r="24" spans="3:40" x14ac:dyDescent="0.25">
+        <v>2336</v>
+      </c>
+      <c r="P23" s="9">
+        <v>2487</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>2492</v>
+      </c>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AO23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP23" s="33">
+        <f>(AP22-B4)/B4</f>
+        <v>2.6496102871989984</v>
+      </c>
+    </row>
+    <row r="24" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9">
-        <v>1085.6320000000001</v>
-      </c>
-      <c r="I24" s="9">
-        <v>1085.6320000000001</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9">
-        <v>1188.829</v>
-      </c>
-      <c r="M24" s="9">
-        <v>1380.924</v>
-      </c>
-      <c r="N24" s="9">
-        <v>1612.704</v>
-      </c>
-      <c r="O24" s="9">
-        <v>1712.2660000000001</v>
-      </c>
-      <c r="P24" s="8">
-        <v>2188.3490000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9">
-        <v>11</v>
-      </c>
-      <c r="M25" s="9">
-        <v>11.118</v>
-      </c>
-      <c r="N25" s="9">
-        <v>10.691000000000001</v>
-      </c>
-      <c r="O25" s="9">
-        <v>10.337</v>
-      </c>
-      <c r="P25" s="8">
-        <v>10.638999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9">
-        <v>1.22</v>
-      </c>
-      <c r="I26" s="9">
-        <v>1.22</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9">
-        <v>1.226</v>
-      </c>
-      <c r="M26" s="9">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="N26" s="9">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="O26" s="9">
-        <v>1.014</v>
-      </c>
-      <c r="P26" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:40" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="84">
+        <f t="shared" ref="L24:P24" si="62">(P23-L23)/L23</f>
+        <v>0.38089950027762354</v>
+      </c>
+      <c r="Q24" s="82">
+        <f>(Q23-M23)/M23</f>
+        <v>0.30130548302872062</v>
+      </c>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+    </row>
+    <row r="26" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="AA26" s="12"/>
+    </row>
+    <row r="27" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9">
-        <v>0.33800000000000002</v>
+        <v>16.946999999999999</v>
       </c>
       <c r="I27" s="9">
-        <v>0.33800000000000002</v>
+        <v>16.946999999999999</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9">
-        <v>1.248</v>
+        <v>17.236000000000001</v>
       </c>
       <c r="M27" s="9">
-        <v>3.1920000000000002</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="N27" s="9">
-        <v>0.69499999999999995</v>
+        <v>16.72</v>
       </c>
       <c r="O27" s="9">
-        <v>6.593</v>
-      </c>
-      <c r="P27" s="8">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="28" spans="3:40" x14ac:dyDescent="0.25">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="P27" s="9">
+        <v>18.643999999999998</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>19</v>
+      </c>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="AC27" s="8"/>
+    </row>
+    <row r="28" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9">
-        <v>1.8360000000000001</v>
+        <v>1085.6320000000001</v>
       </c>
       <c r="I28" s="9">
-        <v>1.8360000000000001</v>
+        <v>1085.6320000000001</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9">
-        <v>1.86</v>
+        <v>1188.829</v>
       </c>
       <c r="M28" s="9">
-        <v>0.94699999999999995</v>
+        <v>1380.924</v>
       </c>
       <c r="N28" s="9">
-        <v>1.351</v>
+        <v>1612.704</v>
       </c>
       <c r="O28" s="9">
-        <v>1.0389999999999999</v>
-      </c>
-      <c r="P28" s="8">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="29" spans="3:40" x14ac:dyDescent="0.25">
+        <v>1712.2660000000001</v>
+      </c>
+      <c r="P28" s="9">
+        <v>2188.3490000000002</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>2384.5509999999999</v>
+      </c>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9">
-        <v>30.552</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="I29" s="9">
-        <v>30.552</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9">
-        <v>36.527999999999999</v>
+        <v>11</v>
       </c>
       <c r="M29" s="9">
-        <v>39.680999999999997</v>
+        <v>11.118</v>
       </c>
       <c r="N29" s="9">
-        <v>46.317999999999998</v>
+        <v>10.691000000000001</v>
       </c>
       <c r="O29" s="9">
-        <v>62.985999999999997</v>
-      </c>
-      <c r="P29" s="8">
-        <v>105.81699999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="3:40" x14ac:dyDescent="0.25">
+        <v>10.337</v>
+      </c>
+      <c r="P29" s="9">
+        <v>10.638999999999999</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>11.132999999999999</v>
+      </c>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+    </row>
+    <row r="30" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9">
-        <v>8.8800000000000008</v>
+        <v>1.22</v>
       </c>
       <c r="I30" s="9">
-        <v>8.8800000000000008</v>
+        <v>1.22</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9">
-        <v>1.5489999999999999</v>
+        <v>1.226</v>
       </c>
       <c r="M30" s="9">
-        <v>18.295999999999999</v>
+        <v>1.0469999999999999</v>
       </c>
       <c r="N30" s="9">
-        <v>30.564</v>
+        <v>1.0469999999999999</v>
       </c>
       <c r="O30" s="9">
-        <v>37.609000000000002</v>
-      </c>
-      <c r="P30" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="3:40" x14ac:dyDescent="0.25">
+        <v>1.014</v>
+      </c>
+      <c r="P30" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+    </row>
+    <row r="31" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9">
-        <v>9.5619999999999994</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="I31" s="9">
-        <v>9.5619999999999994</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9">
-        <v>15.388999999999999</v>
+        <v>1.248</v>
       </c>
       <c r="M31" s="9">
-        <v>21.555</v>
+        <v>3.1920000000000002</v>
       </c>
       <c r="N31" s="9">
-        <v>15.627000000000001</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="O31" s="9">
-        <v>16.643000000000001</v>
-      </c>
-      <c r="P31" s="8">
-        <v>13.345000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="3:40" x14ac:dyDescent="0.25">
+        <v>6.593</v>
+      </c>
+      <c r="P31" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+    </row>
+    <row r="32" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>200</v>
+        <v>71</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="H32" s="9">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="I32" s="9">
+        <v>1.8360000000000001</v>
+      </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
+      <c r="L32" s="9">
+        <v>1.86</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="N32" s="9">
+        <v>1.351</v>
+      </c>
       <c r="O32" s="9">
-        <v>11.875</v>
-      </c>
-      <c r="P32" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="P32" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>2.2690000000000001</v>
+      </c>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>196</v>
+        <v>72</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9">
-        <v>1.2E-2</v>
+        <v>30.552</v>
       </c>
       <c r="I33" s="9">
-        <v>0</v>
+        <v>30.552</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9">
-        <v>1.2E-2</v>
+        <v>36.527999999999999</v>
       </c>
       <c r="M33" s="9">
-        <v>2.278</v>
+        <v>39.680999999999997</v>
       </c>
       <c r="N33" s="9">
-        <v>0</v>
+        <v>46.317999999999998</v>
       </c>
       <c r="O33" s="9">
-        <v>0</v>
-      </c>
-      <c r="P33" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+        <v>62.985999999999997</v>
+      </c>
+      <c r="P33" s="9">
+        <v>105.81699999999999</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>111.5</v>
+      </c>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9">
-        <v>96.608000000000004</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="I34" s="9">
-        <v>96.6</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9">
-        <v>209.13</v>
+        <v>1.5489999999999999</v>
       </c>
       <c r="M34" s="9">
-        <v>93.05</v>
+        <v>18.295999999999999</v>
       </c>
       <c r="N34" s="9">
-        <v>91.853999999999999</v>
+        <v>30.564</v>
       </c>
       <c r="O34" s="9">
-        <v>58.463999999999999</v>
-      </c>
-      <c r="P34" s="8">
-        <v>94.1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C35" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="27">
-        <f t="shared" ref="D35:M35" si="66">SUM(D23:D34)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="27">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="27">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="27">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="27">
-        <f t="shared" si="66"/>
-        <v>1252.5599999999997</v>
-      </c>
-      <c r="I35" s="27">
-        <f t="shared" si="66"/>
-        <v>1252.5399999999997</v>
-      </c>
-      <c r="J35" s="27">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="27">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="27">
-        <f t="shared" si="66"/>
-        <v>1484.0070000000001</v>
-      </c>
-      <c r="M35" s="27">
-        <f t="shared" si="66"/>
-        <v>1589.528</v>
-      </c>
-      <c r="N35" s="27">
-        <f>SUM(N23:N34)</f>
-        <v>1827.5710000000001</v>
-      </c>
-      <c r="O35" s="27">
-        <f>SUM(O23:O34)</f>
-        <v>1937.0160000000001</v>
-      </c>
-      <c r="P35" s="10">
-        <f>SUM(P23:P34)</f>
-        <v>2464.2939999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+        <v>37.609000000000002</v>
+      </c>
+      <c r="P34" s="9">
+        <v>24</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>154.30000000000001</v>
+      </c>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+    </row>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9">
+        <v>9.5619999999999994</v>
+      </c>
+      <c r="I35" s="9">
+        <v>9.5619999999999994</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9">
+        <v>15.388999999999999</v>
+      </c>
+      <c r="M35" s="9">
+        <v>21.555</v>
+      </c>
+      <c r="N35" s="9">
+        <v>15.627000000000001</v>
+      </c>
+      <c r="O35" s="9">
+        <v>16.643000000000001</v>
+      </c>
+      <c r="P35" s="9">
+        <v>13.345000000000001</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>30.8</v>
+      </c>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="9">
-        <v>41.838999999999999</v>
-      </c>
-      <c r="I36" s="9">
-        <v>41.838999999999999</v>
-      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="9">
-        <v>47.14</v>
-      </c>
-      <c r="M36" s="9">
-        <v>47.143999999999998</v>
-      </c>
-      <c r="N36" s="9">
-        <v>47.143999999999998</v>
-      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
       <c r="O36" s="9">
-        <v>47.143999999999998</v>
-      </c>
-      <c r="P36" s="8">
-        <v>47.143999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
+        <v>11.875</v>
+      </c>
+      <c r="P36" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9">
-        <v>952.85799999999995</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I37" s="9">
-        <v>952.85799999999995</v>
+        <v>0</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9">
-        <v>1099.95</v>
+        <v>1.2E-2</v>
       </c>
       <c r="M37" s="9">
-        <v>1100.0029999999999</v>
+        <v>2.278</v>
       </c>
       <c r="N37" s="9">
-        <v>1099.4949999999999</v>
+        <v>0</v>
       </c>
       <c r="O37" s="9">
-        <v>1099.4949999999999</v>
-      </c>
-      <c r="P37" s="8">
-        <v>1099.4949999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>0</v>
+      </c>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
+      <c r="H38" s="9">
+        <v>96.608000000000004</v>
+      </c>
+      <c r="I38" s="9">
+        <v>96.6</v>
+      </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
+      <c r="L38" s="9">
+        <v>209.13</v>
+      </c>
+      <c r="M38" s="9">
+        <v>93.05</v>
+      </c>
       <c r="N38" s="9">
-        <v>-1.2829999999999999</v>
+        <v>91.853999999999999</v>
       </c>
       <c r="O38" s="9">
-        <v>-1.2829999999999999</v>
-      </c>
-      <c r="P38" s="8">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9">
-        <v>-28.283000000000001</v>
-      </c>
-      <c r="I39" s="9">
-        <v>-28.283000000000001</v>
-      </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9">
-        <v>-4.0609999999999999</v>
-      </c>
-      <c r="M39" s="9">
-        <v>10.696999999999999</v>
-      </c>
-      <c r="N39" s="9">
-        <v>-34.57</v>
-      </c>
-      <c r="O39" s="9">
-        <v>29.18</v>
-      </c>
-      <c r="P39" s="8">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+        <v>58.463999999999999</v>
+      </c>
+      <c r="P38" s="9">
+        <v>94.1</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>53</v>
+      </c>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="27">
+        <f t="shared" ref="D39:M39" si="63">SUM(D27:D38)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="27">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="27">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="27">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="27">
+        <f t="shared" si="63"/>
+        <v>1252.5599999999997</v>
+      </c>
+      <c r="I39" s="27">
+        <f t="shared" si="63"/>
+        <v>1252.5399999999997</v>
+      </c>
+      <c r="J39" s="27">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="27">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="27">
+        <f t="shared" si="63"/>
+        <v>1484.0070000000001</v>
+      </c>
+      <c r="M39" s="27">
+        <f t="shared" si="63"/>
+        <v>1589.528</v>
+      </c>
+      <c r="N39" s="27">
+        <f>SUM(N27:N38)</f>
+        <v>1827.5710000000001</v>
+      </c>
+      <c r="O39" s="27">
+        <f>SUM(O27:O38)</f>
+        <v>1937.0160000000001</v>
+      </c>
+      <c r="P39" s="27">
+        <f>SUM(P27:P38)</f>
+        <v>2464.2939999999999</v>
+      </c>
+      <c r="Q39" s="10">
+        <f>SUM(Q27:Q38)</f>
+        <v>2769.2829999999999</v>
+      </c>
+      <c r="R39" s="27">
+        <f t="shared" ref="R39:S39" si="64">SUM(R27:R38)</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="27">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9">
-        <v>-7.3730000000000002</v>
+        <v>41.838999999999999</v>
       </c>
       <c r="I40" s="9">
-        <v>-7.3730000000000002</v>
+        <v>41.838999999999999</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9">
-        <v>-27.893999999999998</v>
+        <v>47.14</v>
       </c>
       <c r="M40" s="9">
-        <v>-6.5289999999999999</v>
+        <v>47.143999999999998</v>
       </c>
       <c r="N40" s="9">
-        <v>21.614000000000001</v>
+        <v>47.143999999999998</v>
       </c>
       <c r="O40" s="9">
-        <v>59.357999999999997</v>
-      </c>
-      <c r="P40" s="8">
-        <v>61.774999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C41" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="55">
-        <f t="shared" ref="D41:M41" si="67">SUM(D36:D40)</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="55">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="55">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="55">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="55">
-        <f>SUM(H36:H40)</f>
-        <v>959.04099999999983</v>
-      </c>
-      <c r="I41" s="55">
-        <f t="shared" si="67"/>
-        <v>959.04099999999983</v>
-      </c>
-      <c r="J41" s="55">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="55">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="55">
-        <f>SUM(L36:L40)</f>
-        <v>1115.1350000000002</v>
-      </c>
-      <c r="M41" s="55">
-        <f t="shared" si="67"/>
-        <v>1151.3149999999998</v>
-      </c>
-      <c r="N41" s="55">
-        <f>SUM(N36:N40)</f>
-        <v>1132.4000000000001</v>
-      </c>
-      <c r="O41" s="55">
-        <f>SUM(O36:O40)</f>
-        <v>1233.894</v>
-      </c>
-      <c r="P41" s="64">
-        <f>SUM(P36:P40)</f>
-        <v>1225.614</v>
-      </c>
-    </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+        <v>47.143999999999998</v>
+      </c>
+      <c r="P40" s="9">
+        <v>47.143999999999998</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>47.143999999999998</v>
+      </c>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9">
+        <v>952.85799999999995</v>
+      </c>
+      <c r="I41" s="9">
+        <v>952.85799999999995</v>
+      </c>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9">
+        <v>1099.95</v>
+      </c>
+      <c r="M41" s="9">
+        <v>1100.0029999999999</v>
+      </c>
+      <c r="N41" s="9">
+        <v>1099.4949999999999</v>
+      </c>
+      <c r="O41" s="9">
+        <v>1099.4949999999999</v>
+      </c>
+      <c r="P41" s="9">
+        <v>1099.4949999999999</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>1099.4949999999999</v>
+      </c>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="9">
-        <v>4.8129999999999997</v>
-      </c>
-      <c r="I42" s="9">
-        <v>4.8129999999999997</v>
-      </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
-      <c r="L42" s="9">
-        <v>4.8129999999999997</v>
-      </c>
-      <c r="M42" s="9">
-        <v>0</v>
-      </c>
+      <c r="L42" s="9"/>
       <c r="N42" s="9">
-        <v>0</v>
+        <v>-1.2829999999999999</v>
       </c>
       <c r="O42" s="9">
-        <v>0</v>
-      </c>
-      <c r="P42" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+        <v>-1.2829999999999999</v>
+      </c>
+      <c r="P42" s="9">
+        <v>-1.2</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>-3</v>
+      </c>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9">
-        <v>0.39200000000000002</v>
+        <v>-28.283000000000001</v>
       </c>
       <c r="I43" s="9">
-        <v>0.39200000000000002</v>
+        <v>-28.283000000000001</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9">
-        <v>9.8580000000000005</v>
+        <v>-4.0609999999999999</v>
       </c>
       <c r="M43" s="9">
-        <v>9.859</v>
+        <v>10.696999999999999</v>
       </c>
       <c r="N43" s="9">
-        <v>9.609</v>
+        <v>-34.57</v>
       </c>
       <c r="O43" s="9">
-        <v>9.6969999999999992</v>
-      </c>
-      <c r="P43" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+        <v>29.18</v>
+      </c>
+      <c r="P43" s="9">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>-0.90600000000000003</v>
+      </c>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+    </row>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9">
-        <v>10.191000000000001</v>
+        <v>-7.3730000000000002</v>
       </c>
       <c r="I44" s="9">
-        <v>10.191000000000001</v>
+        <v>-7.3730000000000002</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9">
-        <v>10.417</v>
+        <v>-27.893999999999998</v>
       </c>
       <c r="M44" s="9">
-        <v>11.236000000000001</v>
+        <v>-6.5289999999999999</v>
       </c>
       <c r="N44" s="9">
-        <v>10.788</v>
+        <v>21.614000000000001</v>
       </c>
       <c r="O44" s="9">
-        <v>11.972</v>
-      </c>
-      <c r="P44" s="8">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9">
-        <v>1.778</v>
-      </c>
-      <c r="I45" s="9">
-        <v>1.778</v>
-      </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9">
-        <v>6.327</v>
-      </c>
-      <c r="M45" s="9">
-        <v>1.734</v>
-      </c>
-      <c r="N45" s="9">
-        <v>7.4649999999999999</v>
-      </c>
-      <c r="O45" s="9">
-        <v>1.7470000000000001</v>
-      </c>
-      <c r="P45" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
+        <v>59.357999999999997</v>
+      </c>
+      <c r="P44" s="9">
+        <v>61.774999999999999</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>228.19300000000001</v>
+      </c>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C45" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="55">
+        <f t="shared" ref="D45:M45" si="65">SUM(D40:D44)</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="55">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="55">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="55">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="55">
+        <f>SUM(H40:H44)</f>
+        <v>959.04099999999983</v>
+      </c>
+      <c r="I45" s="55">
+        <f t="shared" si="65"/>
+        <v>959.04099999999983</v>
+      </c>
+      <c r="J45" s="55">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="55">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="55">
+        <f>SUM(L40:L44)</f>
+        <v>1115.1350000000002</v>
+      </c>
+      <c r="M45" s="55">
+        <f t="shared" si="65"/>
+        <v>1151.3149999999998</v>
+      </c>
+      <c r="N45" s="55">
+        <f>SUM(N40:N44)</f>
+        <v>1132.4000000000001</v>
+      </c>
+      <c r="O45" s="55">
+        <f>SUM(O40:O44)</f>
+        <v>1233.894</v>
+      </c>
+      <c r="P45" s="55">
+        <f>SUM(P40:P44)</f>
+        <v>1225.614</v>
+      </c>
+      <c r="Q45" s="80">
+        <f t="shared" ref="Q45:S45" si="66">SUM(Q40:Q44)</f>
+        <v>1370.9259999999999</v>
+      </c>
+      <c r="R45" s="55">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="55">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9">
-        <v>204.773</v>
+        <v>4.8129999999999997</v>
       </c>
       <c r="I46" s="9">
-        <v>204.773</v>
+        <v>4.8129999999999997</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9">
-        <v>254.59100000000001</v>
+        <v>4.8129999999999997</v>
       </c>
       <c r="M46" s="9">
-        <v>335.02800000000002</v>
+        <v>0</v>
       </c>
       <c r="N46" s="9">
-        <v>546.75300000000004</v>
+        <v>0</v>
       </c>
       <c r="O46" s="9">
-        <v>539.85400000000004</v>
-      </c>
-      <c r="P46" s="8">
-        <v>995.471</v>
-      </c>
-    </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P46" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>0</v>
+      </c>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+    </row>
+    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C47" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9">
-        <v>17.957000000000001</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="I47" s="9">
-        <v>17.957000000000001</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9">
-        <v>8.3170000000000002</v>
+        <v>9.8580000000000005</v>
       </c>
       <c r="M47" s="9">
-        <v>3.609</v>
+        <v>9.859</v>
       </c>
       <c r="N47" s="9">
-        <v>18.594999999999999</v>
+        <v>9.609</v>
       </c>
       <c r="O47" s="9">
-        <v>16.204999999999998</v>
-      </c>
-      <c r="P47" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
+        <v>9.6969999999999992</v>
+      </c>
+      <c r="P47" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>10</v>
+      </c>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+    </row>
+    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9">
-        <v>32.636000000000003</v>
+        <v>10.191000000000001</v>
       </c>
       <c r="I48" s="9">
-        <v>32.636000000000003</v>
+        <v>10.191000000000001</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9">
-        <v>49.115000000000002</v>
+        <v>10.417</v>
       </c>
       <c r="M48" s="9">
-        <v>42.279000000000003</v>
+        <v>11.236000000000001</v>
       </c>
       <c r="N48" s="9">
-        <v>37.744999999999997</v>
+        <v>10.788</v>
       </c>
       <c r="O48" s="9">
-        <v>43.594999999999999</v>
-      </c>
-      <c r="P48" s="8">
-        <v>36.250999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.25">
+        <v>11.972</v>
+      </c>
+      <c r="P48" s="9">
+        <v>11.5</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>11.972</v>
+      </c>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C49" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9">
-        <v>2.0859999999999999</v>
+        <v>1.778</v>
       </c>
       <c r="I49" s="9">
-        <v>2</v>
+        <v>1.778</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9">
-        <v>2.0859999999999999</v>
+        <v>6.327</v>
       </c>
       <c r="M49" s="9">
-        <v>4.9939999999999998</v>
+        <v>1.734</v>
       </c>
       <c r="N49" s="9">
-        <v>4.7990000000000004</v>
+        <v>7.4649999999999999</v>
       </c>
       <c r="O49" s="9">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="P49" s="8">
-        <v>0.84099999999999997</v>
-      </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.25">
+        <v>1.7470000000000001</v>
+      </c>
+      <c r="P49" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>8.3369999999999997</v>
+      </c>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9">
-        <v>0.16200000000000001</v>
+        <v>204.773</v>
       </c>
       <c r="I50" s="9">
-        <v>0.16200000000000001</v>
+        <v>204.773</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9">
-        <v>0.155</v>
+        <v>254.59100000000001</v>
       </c>
       <c r="M50" s="9">
-        <v>7.9000000000000001E-2</v>
+        <v>335.02800000000002</v>
       </c>
       <c r="N50" s="9">
-        <v>0.15</v>
+        <v>546.75300000000004</v>
       </c>
       <c r="O50" s="9">
-        <v>0.223</v>
-      </c>
-      <c r="P50" s="8">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.25">
+        <v>539.85400000000004</v>
+      </c>
+      <c r="P50" s="9">
+        <v>995.471</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>993.6</v>
+      </c>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C51" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9">
-        <v>12.103</v>
+        <v>17.957000000000001</v>
       </c>
       <c r="I51" s="9">
-        <v>12.103</v>
+        <v>17.957000000000001</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9">
-        <v>16.821000000000002</v>
+        <v>8.3170000000000002</v>
       </c>
       <c r="M51" s="9">
-        <v>23.186</v>
+        <v>3.609</v>
       </c>
       <c r="N51" s="9">
-        <v>22.76</v>
+        <v>18.594999999999999</v>
       </c>
       <c r="O51" s="9">
-        <v>45.59</v>
-      </c>
-      <c r="P51" s="8">
-        <v>98.441999999999993</v>
-      </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.25">
+        <v>16.204999999999998</v>
+      </c>
+      <c r="P51" s="9">
+        <v>14</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>16.663</v>
+      </c>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9">
-        <v>0.60099999999999998</v>
+        <v>32.636000000000003</v>
       </c>
       <c r="I52" s="9">
-        <v>0.60099999999999998</v>
+        <v>32.636000000000003</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9">
-        <v>1.4179999999999999</v>
+        <v>49.115000000000002</v>
       </c>
       <c r="M52" s="9">
-        <v>1.262</v>
+        <v>42.279000000000003</v>
       </c>
       <c r="N52" s="9">
-        <v>1.155</v>
+        <v>37.744999999999997</v>
       </c>
       <c r="O52" s="9">
-        <v>1.274</v>
-      </c>
-      <c r="P52" s="8">
-        <v>0.83499999999999996</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.25">
+        <v>43.594999999999999</v>
+      </c>
+      <c r="P52" s="9">
+        <v>36.250999999999998</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>52.237000000000002</v>
+      </c>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9">
-        <v>1.224</v>
+        <v>2.0859999999999999</v>
       </c>
       <c r="I53" s="9">
-        <v>1.224</v>
+        <v>2</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9">
-        <v>1.266</v>
+        <v>2.0859999999999999</v>
       </c>
       <c r="M53" s="9">
-        <v>0.48299999999999998</v>
+        <v>4.9939999999999998</v>
       </c>
       <c r="N53" s="9">
-        <v>0.36899999999999999</v>
+        <v>4.7990000000000004</v>
       </c>
       <c r="O53" s="9">
-        <v>0.752</v>
-      </c>
-      <c r="P53" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.25">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="P53" s="9">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9">
-        <v>0.79900000000000004</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="I54" s="9">
-        <v>0.79900000000000004</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9">
-        <v>3.2810000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="M54" s="9">
-        <v>4.3440000000000003</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="N54" s="9">
-        <v>32.567999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="O54" s="9">
-        <v>31.163</v>
-      </c>
-      <c r="P54" s="8">
-        <v>63.735999999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.25">
+        <v>0.223</v>
+      </c>
+      <c r="P54" s="9">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C55" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9">
-        <v>4.0039999999999996</v>
+        <v>12.103</v>
       </c>
       <c r="I55" s="9">
-        <v>4.04</v>
+        <v>12.103</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9">
+        <v>16.821000000000002</v>
+      </c>
+      <c r="M55" s="9">
+        <v>23.186</v>
+      </c>
+      <c r="N55" s="9">
+        <v>22.76</v>
+      </c>
+      <c r="O55" s="9">
+        <v>45.59</v>
+      </c>
+      <c r="P55" s="9">
+        <v>98.441999999999993</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>79.983999999999995</v>
+      </c>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="I56" s="9">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="M56" s="9">
+        <v>1.262</v>
+      </c>
+      <c r="N56" s="9">
+        <v>1.155</v>
+      </c>
+      <c r="O56" s="9">
+        <v>1.274</v>
+      </c>
+      <c r="P56" s="9">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9">
+        <v>1.224</v>
+      </c>
+      <c r="I57" s="9">
+        <v>1.224</v>
+      </c>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9">
+        <v>1.266</v>
+      </c>
+      <c r="M57" s="9">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="N57" s="9">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="O57" s="9">
+        <v>0.752</v>
+      </c>
+      <c r="P57" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="I58" s="9">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9">
+        <v>3.2810000000000001</v>
+      </c>
+      <c r="M58" s="9">
+        <v>4.3440000000000003</v>
+      </c>
+      <c r="N58" s="9">
+        <v>32.567999999999998</v>
+      </c>
+      <c r="O58" s="9">
+        <v>31.163</v>
+      </c>
+      <c r="P58" s="9">
+        <v>63.735999999999997</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>204.785</v>
+      </c>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9">
+        <v>4.0039999999999996</v>
+      </c>
+      <c r="I59" s="9">
+        <v>4.04</v>
+      </c>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9">
         <v>0.69099999999999995</v>
       </c>
-      <c r="M55" s="9">
+      <c r="M59" s="9">
         <v>0.12</v>
       </c>
-      <c r="N55" s="9">
+      <c r="N59" s="9">
         <v>2.415</v>
       </c>
-      <c r="O55" s="9">
+      <c r="O59" s="9">
         <v>0.20899999999999999</v>
       </c>
-      <c r="P55" s="8">
+      <c r="P59" s="9">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C56" s="11" t="s">
+      <c r="Q59" s="8">
+        <v>14.2</v>
+      </c>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C60" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="55">
+        <f t="shared" ref="D60:L60" si="67">SUM(D47:D59)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="55">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="55">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="55">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="55">
+        <f t="shared" si="67"/>
+        <v>288.70599999999996</v>
+      </c>
+      <c r="I60" s="55">
+        <f t="shared" si="67"/>
+        <v>288.65599999999995</v>
+      </c>
+      <c r="J60" s="55">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="55">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="55">
+        <f t="shared" si="67"/>
+        <v>364.34300000000002</v>
+      </c>
+      <c r="M60" s="55">
+        <f>SUM(M47:M58)</f>
+        <v>438.09300000000002</v>
+      </c>
+      <c r="N60" s="55">
+        <f>SUM(N47:N59)</f>
+        <v>695.17099999999994</v>
+      </c>
+      <c r="O60" s="55">
+        <f>SUM(O47:O59)</f>
+        <v>703.12199999999996</v>
+      </c>
+      <c r="P60" s="55">
+        <f>SUM(P47:P59)</f>
+        <v>1237.8810000000001</v>
+      </c>
+      <c r="Q60" s="80">
+        <f t="shared" ref="Q60:S60" si="68">SUM(Q47:Q59)</f>
+        <v>1398.319</v>
+      </c>
+      <c r="R60" s="55">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="55">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C61" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D56" s="55">
-        <f t="shared" ref="D56:L56" si="68">SUM(D43:D55)</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="55">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="55">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="55">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="55">
-        <f t="shared" si="68"/>
-        <v>288.70599999999996</v>
-      </c>
-      <c r="I56" s="55">
-        <f t="shared" si="68"/>
-        <v>288.65599999999995</v>
-      </c>
-      <c r="J56" s="55">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="55">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="55">
-        <f t="shared" si="68"/>
-        <v>364.34300000000002</v>
-      </c>
-      <c r="M56" s="55">
-        <f>SUM(M43:M54)</f>
-        <v>438.09300000000002</v>
-      </c>
-      <c r="N56" s="55">
-        <f>SUM(N43:N55)</f>
-        <v>695.17099999999994</v>
-      </c>
-      <c r="O56" s="55">
-        <f>SUM(O43:O55)</f>
-        <v>703.12199999999996</v>
-      </c>
-      <c r="P56" s="64">
-        <f>SUM(P43:P55)</f>
-        <v>1237.8810000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C57" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="27">
-        <f t="shared" ref="D57:M57" si="69">D41+D56</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="27">
+      <c r="D61" s="27">
+        <f t="shared" ref="D61:M61" si="69">D45+D60</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="27">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="F57" s="27">
+      <c r="F61" s="27">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="G57" s="27">
+      <c r="G61" s="27">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="H57" s="27">
+      <c r="H61" s="27">
         <f t="shared" si="69"/>
         <v>1247.7469999999998</v>
       </c>
-      <c r="I57" s="27">
-        <f>I41+I56</f>
+      <c r="I61" s="27">
+        <f>I45+I60</f>
         <v>1247.6969999999997</v>
       </c>
-      <c r="J57" s="27">
+      <c r="J61" s="27">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="K57" s="27">
+      <c r="K61" s="27">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="L57" s="27">
+      <c r="L61" s="27">
         <f t="shared" si="69"/>
         <v>1479.4780000000003</v>
       </c>
-      <c r="M57" s="27">
+      <c r="M61" s="27">
         <f t="shared" si="69"/>
         <v>1589.4079999999999</v>
       </c>
-      <c r="N57" s="27">
-        <f>N41+N56</f>
+      <c r="N61" s="27">
+        <f>N45+N60</f>
         <v>1827.5709999999999</v>
       </c>
-      <c r="O57" s="27">
-        <f>O41+O56</f>
+      <c r="O61" s="27">
+        <f>O45+O60</f>
         <v>1937.0160000000001</v>
       </c>
-      <c r="P57" s="10">
-        <f>P41+P56</f>
+      <c r="P61" s="27">
+        <f>P45+P60</f>
         <v>2463.4949999999999</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="N58" s="9"/>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C59" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="N59" s="9"/>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C60" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D60" s="9">
-        <f t="shared" ref="D60:K60" si="70">D14</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="9">
+      <c r="Q61" s="10">
+        <f t="shared" ref="Q61:S61" si="70">Q45+Q60</f>
+        <v>2769.2449999999999</v>
+      </c>
+      <c r="R61" s="27">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="F60" s="9">
+      <c r="S61" s="27">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="G60" s="9">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="9">
-        <f t="shared" si="70"/>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="9">
+        <f>D14</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="9">
+        <f>E14</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="9">
+        <f>F14</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="9">
+        <f>G14</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="9">
+        <f>H14</f>
         <v>2.0189999999999984</v>
       </c>
-      <c r="I60" s="9">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="9">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="9">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="9">
+      <c r="I64" s="9">
+        <f>I14</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="9">
+        <f>J14</f>
+        <v>0</v>
+      </c>
+      <c r="K64" s="9">
+        <f>K14</f>
+        <v>0</v>
+      </c>
+      <c r="L64" s="9">
         <f>L14</f>
         <v>-21.475999999999999</v>
       </c>
-      <c r="M60" s="9">
-        <f t="shared" ref="M60:P60" si="71">M14</f>
+      <c r="M64" s="9">
+        <f>M14</f>
         <v>21.799999999999997</v>
       </c>
-      <c r="N60" s="9">
-        <f t="shared" si="71"/>
+      <c r="N64" s="9">
+        <f>N14</f>
         <v>27.300000000000004</v>
       </c>
-      <c r="O60" s="9">
-        <f t="shared" si="71"/>
+      <c r="O64" s="9">
+        <f>O14</f>
         <v>38.710000000000008</v>
       </c>
-      <c r="P60" s="8">
-        <f t="shared" si="71"/>
+      <c r="P64" s="9">
+        <f>P14</f>
         <v>1.7640000000000022</v>
       </c>
-      <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9">
-        <f t="shared" ref="W60:Y60" si="72">W14</f>
+      <c r="Q64" s="8">
+        <f>Q14</f>
+        <v>166.20700000000005</v>
+      </c>
+      <c r="R64" s="9">
+        <f>R14</f>
+        <v>0</v>
+      </c>
+      <c r="S64" s="9">
+        <f>S14</f>
+        <v>0</v>
+      </c>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9">
+        <f>Y14</f>
         <v>7.4510000000000041</v>
       </c>
-      <c r="X60" s="9">
-        <f t="shared" si="72"/>
+      <c r="Z64" s="9">
+        <f>Z14</f>
         <v>35.541000000000011</v>
       </c>
-      <c r="Y60" s="9">
-        <f t="shared" si="72"/>
+      <c r="AA64" s="9">
+        <f>AA14</f>
         <v>11.498000000000005</v>
       </c>
-      <c r="Z60" s="9">
-        <f>Z14</f>
+      <c r="AB64" s="9">
+        <f>AB14</f>
         <v>67.731000000000009</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C61" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9">
+    <row r="65" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9">
         <v>2</v>
       </c>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9">
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9">
         <v>-21</v>
       </c>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="8">
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9">
         <v>2</v>
       </c>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9">
+      <c r="Q65" s="3">
+        <v>166</v>
+      </c>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9">
         <v>7.4</v>
       </c>
-      <c r="X61" s="9">
+      <c r="Z65" s="9">
         <v>36</v>
       </c>
-      <c r="Y61" s="9">
+      <c r="AA65" s="9">
         <v>11</v>
       </c>
-      <c r="Z61" s="9">
+      <c r="AB65" s="9">
         <f>65</f>
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C62" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9">
-        <v>5.9</v>
-      </c>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9">
-        <v>10</v>
-      </c>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="8">
-        <v>18.824000000000002</v>
-      </c>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="X62" s="9">
-        <v>23.9</v>
-      </c>
-      <c r="Y62" s="9">
-        <v>31.7</v>
-      </c>
-      <c r="Z62" s="9">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C63" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9">
-        <v>0.121</v>
-      </c>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="8">
-        <f>-0.266+0.107+0.705</f>
-        <v>0.54599999999999993</v>
-      </c>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="X63" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="9">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C64" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="8">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-      <c r="W64" s="9">
-        <v>0</v>
-      </c>
-      <c r="X64" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C65" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27">
-        <v>7.8E-2</v>
-      </c>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="8">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9">
-        <v>-0.32100000000000001</v>
-      </c>
-      <c r="X65" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C66" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9">
-        <v>-3.38</v>
+        <v>5.9</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9">
-        <v>21.6</v>
+        <v>10</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
-      <c r="P66" s="8">
-        <v>-4.444</v>
-      </c>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9">
-        <f>1.9</f>
-        <v>1.9</v>
-      </c>
-      <c r="X66" s="9">
-        <v>-30.4</v>
-      </c>
+      <c r="P66" s="9">
+        <v>18.824000000000002</v>
+      </c>
+      <c r="Q66" s="8">
+        <f>49.961-P66</f>
+        <v>31.136999999999997</v>
+      </c>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
       <c r="Y66" s="9">
-        <v>20.100000000000001</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="Z66" s="9">
-        <v>-32.512999999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="3:26" x14ac:dyDescent="0.25">
+        <v>23.9</v>
+      </c>
+      <c r="AA66" s="9">
+        <v>31.7</v>
+      </c>
+      <c r="AB66" s="9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C67" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
-      <c r="P67" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-      <c r="W67" s="9">
-        <v>0.158</v>
-      </c>
-      <c r="X67" s="9">
-        <v>-1.2999999999999999E-2</v>
-      </c>
+      <c r="P67" s="9">
+        <f>-0.266+0.107+0.705</f>
+        <v>0.54599999999999993</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>0</v>
+      </c>
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
       <c r="Y67" s="9">
-        <v>2E-3</v>
+        <v>4.5</v>
       </c>
       <c r="Z67" s="9">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="68" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C68" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D68" s="27">
-        <f t="shared" ref="D68:P68" si="73">SUM(D61:D67)</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="27">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="F68" s="27">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="27">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="27">
-        <f t="shared" si="73"/>
-        <v>4.7389999999999999</v>
-      </c>
-      <c r="I68" s="27">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="27">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="27">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L68" s="27">
-        <f t="shared" si="73"/>
-        <v>12.787000000000003</v>
-      </c>
-      <c r="M68" s="27">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="N68" s="27">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="O68" s="27">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="P68" s="10">
-        <f t="shared" si="73"/>
-        <v>19.341000000000005</v>
-      </c>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="27">
-        <f>SUM(W61:W67)</f>
-        <v>30.036999999999995</v>
-      </c>
-      <c r="X68" s="27">
-        <f>SUM(X61:X67)</f>
-        <v>29.486999999999998</v>
-      </c>
-      <c r="Y68" s="27">
-        <f>SUM(Y61:Y67)</f>
-        <v>62.802000000000007</v>
-      </c>
-      <c r="Z68" s="27">
-        <f>SUM(Z61:Z67)</f>
-        <v>92.987000000000009</v>
-      </c>
-    </row>
-    <row r="69" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="8"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C68" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9">
+        <v>-0.4</v>
+      </c>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C69" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27">
+        <v>7.8E-2</v>
+      </c>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="9">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-    </row>
-    <row r="70" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Y69" s="9">
+        <v>-0.32100000000000001</v>
+      </c>
+      <c r="Z69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C70" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9">
-        <v>-7.9</v>
+        <v>-3.38</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9">
-        <v>-101.867</v>
+        <v>21.6</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
-      <c r="P70" s="8">
-        <v>-466.21699999999998</v>
-      </c>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9">
-        <v>-162.941</v>
-      </c>
-      <c r="X70" s="9">
-        <v>-224.60599999999999</v>
-      </c>
+      <c r="P70" s="9">
+        <v>-4.444</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>-140</v>
+      </c>
+      <c r="R70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
       <c r="Y70" s="9">
-        <v>-66.899000000000001</v>
+        <f>1.9</f>
+        <v>1.9</v>
       </c>
       <c r="Z70" s="9">
-        <v>-615.54200000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="3:26" x14ac:dyDescent="0.25">
+        <v>-30.4</v>
+      </c>
+      <c r="AA70" s="9">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AB70" s="9">
+        <v>-32.512999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C71" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9">
-        <v>-3.9E-2</v>
+        <v>0</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
-      <c r="P71" s="8">
-        <f>-0.492-0.077</f>
-        <v>-0.56899999999999995</v>
-      </c>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9">
-        <v>-0.434</v>
-      </c>
-      <c r="X71" s="9">
-        <f>-0.228-0.574</f>
-        <v>-0.80199999999999994</v>
-      </c>
+      <c r="P71" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>-4</v>
+      </c>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
       <c r="Y71" s="9">
-        <f>10.403+1.8-0.031</f>
-        <v>12.172000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="Z71" s="9">
-        <f>-0.41+0.206</f>
-        <v>-0.20399999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="3:26" x14ac:dyDescent="0.25">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="AA71" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="AB71" s="9">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="72" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C72" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D72" s="27">
-        <f t="shared" ref="D72:K72" si="74">SUM(D70:D71)</f>
+        <f t="shared" ref="D72:S72" si="71">SUM(D65:D71)</f>
         <v>0</v>
       </c>
       <c r="E72" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="F72" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G72" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="H72" s="27">
-        <f t="shared" si="74"/>
-        <v>-7.9390000000000001</v>
+        <f t="shared" si="71"/>
+        <v>4.7389999999999999</v>
       </c>
       <c r="I72" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="J72" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="K72" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="L72" s="27">
-        <f>SUM(L70:L71)</f>
-        <v>-101.867</v>
+        <f t="shared" si="71"/>
+        <v>12.787000000000003</v>
       </c>
       <c r="M72" s="27">
-        <f t="shared" ref="M72:P72" si="75">SUM(M70:M71)</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="N72" s="27">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="O72" s="27">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="P72" s="10">
-        <f t="shared" si="75"/>
-        <v>-466.786</v>
-      </c>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="27">
-        <f t="shared" ref="W72" si="76">SUM(W70:W71)</f>
-        <v>-163.375</v>
-      </c>
-      <c r="X72" s="27">
-        <f t="shared" ref="X72" si="77">SUM(X70:X71)</f>
-        <v>-225.40799999999999</v>
-      </c>
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="27">
+        <f t="shared" si="71"/>
+        <v>19.341000000000005</v>
+      </c>
+      <c r="Q72" s="10">
+        <f t="shared" si="71"/>
+        <v>53.137</v>
+      </c>
+      <c r="R72" s="27">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="27">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
       <c r="Y72" s="27">
-        <f t="shared" ref="Y72" si="78">SUM(Y70:Y71)</f>
-        <v>-54.727000000000004</v>
+        <f>SUM(Y65:Y71)</f>
+        <v>30.036999999999995</v>
       </c>
       <c r="Z72" s="27">
-        <f t="shared" ref="Z72" si="79">SUM(Z70:Z71)</f>
-        <v>-615.74599999999998</v>
-      </c>
-    </row>
-    <row r="73" spans="3:26" x14ac:dyDescent="0.25">
+        <f>SUM(Z65:Z71)</f>
+        <v>29.486999999999998</v>
+      </c>
+      <c r="AA72" s="27">
+        <f>SUM(AA65:AA71)</f>
+        <v>62.802000000000007</v>
+      </c>
+      <c r="AB72" s="27">
+        <f>SUM(AB65:AB71)</f>
+        <v>92.987000000000009</v>
+      </c>
+    </row>
+    <row r="73" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
@@ -6551,308 +7022,333 @@
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
-      <c r="P73" s="8"/>
-      <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
+      <c r="P73" s="9"/>
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
-    </row>
-    <row r="74" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="AA73" s="9"/>
+      <c r="AB73" s="9"/>
+    </row>
+    <row r="74" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C74" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9">
-        <v>-0.10299999999999999</v>
+        <v>-7.9</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9">
-        <v>-0.34399999999999997</v>
+        <v>-101.867</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
-      <c r="P74" s="8">
-        <v>-0.79</v>
-      </c>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9">
-        <v>-0.28499999999999998</v>
-      </c>
-      <c r="X74" s="9">
-        <v>-0.22800000000000001</v>
-      </c>
+      <c r="P74" s="9">
+        <v>-466.21699999999998</v>
+      </c>
+      <c r="Q74" s="8">
+        <f>-672.217-P74</f>
+        <v>-206</v>
+      </c>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
       <c r="Y74" s="9">
-        <v>-0.56000000000000005</v>
+        <v>-162.941</v>
       </c>
       <c r="Z74" s="9">
-        <v>-1.9</v>
-      </c>
-    </row>
-    <row r="75" spans="3:26" x14ac:dyDescent="0.25">
+        <v>-224.60599999999999</v>
+      </c>
+      <c r="AA74" s="9">
+        <v>-66.899000000000001</v>
+      </c>
+      <c r="AB74" s="9">
+        <v>-615.54200000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C75" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9">
-        <v>-1.38</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9">
-        <v>-1.34</v>
+        <v>0</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
-      <c r="P75" s="8">
-        <v>-3.7</v>
-      </c>
-      <c r="U75" s="9"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9">
-        <v>-3.9</v>
-      </c>
-      <c r="X75" s="9">
-        <v>-4.2</v>
-      </c>
+      <c r="P75" s="9">
+        <f>-0.492-0.077</f>
+        <v>-0.56899999999999995</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
       <c r="Y75" s="9">
-        <v>-7.1</v>
+        <v>-0.434</v>
       </c>
       <c r="Z75" s="9">
-        <v>-19.689</v>
-      </c>
-    </row>
-    <row r="76" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C76" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9">
-        <v>0</v>
-      </c>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9">
-        <v>154.86799999999999</v>
-      </c>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="8">
-        <v>0</v>
-      </c>
-      <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9">
-        <v>79.218000000000004</v>
-      </c>
-      <c r="X76" s="9">
-        <v>183.25</v>
-      </c>
-      <c r="Y76" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z76" s="9">
-        <v>154.95400000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C77" s="2" t="s">
-        <v>223</v>
-      </c>
+        <f>-0.228-0.574</f>
+        <v>-0.80199999999999994</v>
+      </c>
+      <c r="AA75" s="9">
+        <f>10.403+1.8-0.031</f>
+        <v>12.172000000000001</v>
+      </c>
+      <c r="AB75" s="9">
+        <f>-0.41+0.206</f>
+        <v>-0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C76" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D76" s="27">
+        <f t="shared" ref="D76:K76" si="72">SUM(D74:D75)</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="27">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="27">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="27">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="27">
+        <f t="shared" si="72"/>
+        <v>-7.9390000000000001</v>
+      </c>
+      <c r="I76" s="27">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="27">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="27">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="27">
+        <f>SUM(L74:L75)</f>
+        <v>-101.867</v>
+      </c>
+      <c r="M76" s="27">
+        <f t="shared" ref="M76:S76" si="73">SUM(M74:M75)</f>
+        <v>0</v>
+      </c>
+      <c r="N76" s="27">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="27">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="27">
+        <f t="shared" si="73"/>
+        <v>-466.786</v>
+      </c>
+      <c r="Q76" s="10">
+        <f t="shared" si="73"/>
+        <v>-206</v>
+      </c>
+      <c r="R76" s="27">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="27">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="T76" s="27"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="27">
+        <f t="shared" ref="Y76" si="74">SUM(Y74:Y75)</f>
+        <v>-163.375</v>
+      </c>
+      <c r="Z76" s="27">
+        <f t="shared" ref="Z76" si="75">SUM(Z74:Z75)</f>
+        <v>-225.40799999999999</v>
+      </c>
+      <c r="AA76" s="27">
+        <f t="shared" ref="AA76" si="76">SUM(AA74:AA75)</f>
+        <v>-54.727000000000004</v>
+      </c>
+      <c r="AB76" s="27">
+        <f t="shared" ref="AB76" si="77">SUM(AB74:AB75)</f>
+        <v>-615.74599999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
-      <c r="H77" s="9">
-        <v>0</v>
-      </c>
+      <c r="H77" s="9"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
-      <c r="L77" s="9">
-        <v>-2.4</v>
-      </c>
+      <c r="L77" s="9"/>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
-      <c r="P77" s="8">
-        <v>0</v>
-      </c>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9">
-        <v>-2.1</v>
-      </c>
-      <c r="X77" s="9">
-        <v>-5.0999999999999996</v>
-      </c>
-      <c r="Y77" s="9">
-        <v>-6.9</v>
-      </c>
-      <c r="Z77" s="9">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="78" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="P77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
+      <c r="AB77" s="9"/>
+    </row>
+    <row r="78" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C78" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9">
-        <v>0</v>
+        <v>-0.10299999999999999</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9">
-        <v>50</v>
+        <v>-0.34399999999999997</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
-      <c r="P78" s="8">
-        <f>-0.705+494.749-7.5</f>
-        <v>486.54400000000004</v>
-      </c>
-      <c r="U78" s="9"/>
-      <c r="V78" s="9"/>
-      <c r="W78" s="9">
-        <f>8.9-10</f>
-        <v>-1.0999999999999996</v>
-      </c>
-      <c r="X78" s="9">
-        <f>113.459+16-65-25</f>
-        <v>39.459000000000003</v>
-      </c>
+      <c r="P78" s="9">
+        <v>-0.79</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>0</v>
+      </c>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
       <c r="Y78" s="9">
-        <f>199.935-115</f>
-        <v>84.935000000000002</v>
+        <v>-0.28499999999999998</v>
       </c>
       <c r="Z78" s="9">
-        <f>-1.2-2.3+365.975-10.6</f>
-        <v>351.875</v>
-      </c>
-    </row>
-    <row r="79" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C79" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D79" s="27">
-        <f t="shared" ref="D79:K79" si="80">SUM(D74:D78)</f>
-        <v>0</v>
-      </c>
-      <c r="E79" s="27">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="F79" s="27">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="27">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="H79" s="27">
-        <f t="shared" si="80"/>
-        <v>-1.4829999999999999</v>
-      </c>
-      <c r="I79" s="27">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="27">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="K79" s="27">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="L79" s="27">
-        <f>SUM(L74:L78)</f>
-        <v>200.78399999999999</v>
-      </c>
-      <c r="M79" s="27">
-        <f t="shared" ref="M79:P79" si="81">SUM(M74:M78)</f>
-        <v>0</v>
-      </c>
-      <c r="N79" s="27">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="O79" s="27">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="P79" s="10">
-        <f t="shared" si="81"/>
-        <v>482.05400000000003</v>
-      </c>
-      <c r="U79" s="9"/>
-      <c r="V79" s="9"/>
-      <c r="W79" s="27">
-        <f t="shared" ref="W79" si="82">SUM(W74:W78)</f>
-        <v>71.833000000000013</v>
-      </c>
-      <c r="X79" s="27">
-        <f t="shared" ref="X79" si="83">SUM(X74:X78)</f>
-        <v>213.18100000000001</v>
-      </c>
-      <c r="Y79" s="27">
-        <f t="shared" ref="Y79" si="84">SUM(Y74:Y78)</f>
-        <v>70.375</v>
-      </c>
-      <c r="Z79" s="27">
-        <f t="shared" ref="Z79" si="85">SUM(Z74:Z78)</f>
-        <v>482.24</v>
-      </c>
-    </row>
-    <row r="80" spans="3:26" x14ac:dyDescent="0.25">
+        <v>-0.22800000000000001</v>
+      </c>
+      <c r="AA78" s="9">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="AB78" s="9">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="79" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C79" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9">
+        <v>-1.38</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9">
+        <v>-1.34</v>
+      </c>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9">
+        <v>-3.7</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>-17</v>
+      </c>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9">
+        <v>-3.9</v>
+      </c>
+      <c r="Z79" s="9">
+        <v>-4.2</v>
+      </c>
+      <c r="AA79" s="9">
+        <v>-7.1</v>
+      </c>
+      <c r="AB79" s="9">
+        <v>-19.689</v>
+      </c>
+    </row>
+    <row r="80" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C80" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
+      <c r="H80" s="9">
+        <v>0</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
+      <c r="L80" s="9">
+        <v>154.86799999999999</v>
+      </c>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
-      <c r="P80" s="8"/>
-      <c r="U80" s="9"/>
-      <c r="V80" s="9"/>
+      <c r="P80" s="9">
+        <v>0</v>
+      </c>
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
-      <c r="Y80" s="9"/>
-      <c r="Z80" s="9"/>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Y80" s="9">
+        <v>79.218000000000004</v>
+      </c>
+      <c r="Z80" s="9">
+        <v>183.25</v>
+      </c>
+      <c r="AA80" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="9">
+        <v>154.95400000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C81" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
@@ -6865,299 +7361,544 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9">
-        <v>0.56100000000000005</v>
+        <v>-2.4</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
-      <c r="P81" s="8"/>
-      <c r="U81" s="9"/>
-      <c r="V81" s="9"/>
+      <c r="P81" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-2</v>
+      </c>
       <c r="W81" s="9"/>
-      <c r="X81" s="9">
-        <v>0</v>
-      </c>
+      <c r="X81" s="9"/>
       <c r="Y81" s="9">
-        <v>-1.3</v>
+        <v>-2.1</v>
       </c>
       <c r="Z81" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.25">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="AA81" s="9">
+        <v>-6.9</v>
+      </c>
+      <c r="AB81" s="9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C82" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
+      <c r="H82" s="9">
+        <v>0</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
+      <c r="L82" s="9">
+        <v>50</v>
+      </c>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="62" t="s">
-        <v>233</v>
-      </c>
-      <c r="U82" s="9"/>
-      <c r="V82" s="9"/>
+      <c r="P82" s="9">
+        <f>-0.705+494.749-7.5</f>
+        <v>486.54400000000004</v>
+      </c>
+      <c r="Q82" s="8">
+        <f>644-P82</f>
+        <v>157.45599999999996</v>
+      </c>
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
-      <c r="Y82" s="9"/>
-      <c r="Z82" s="9"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Y82" s="9">
+        <f>8.9-10</f>
+        <v>-1.0999999999999996</v>
+      </c>
+      <c r="Z82" s="9">
+        <f>113.459+16-65-25</f>
+        <v>39.459000000000003</v>
+      </c>
+      <c r="AA82" s="9">
+        <f>199.935-115</f>
+        <v>84.935000000000002</v>
+      </c>
+      <c r="AB82" s="9">
+        <f>-1.2-2.3+365.975-10.6</f>
+        <v>351.875</v>
+      </c>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C83" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D83" s="9">
-        <f t="shared" ref="D83:K83" si="86">D68+D72+D79+D81</f>
-        <v>0</v>
-      </c>
-      <c r="E83" s="9">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="F83" s="9">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="9">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="9">
-        <f t="shared" si="86"/>
-        <v>-4.6829999999999998</v>
-      </c>
-      <c r="I83" s="9">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="9">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="K83" s="9">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
       <c r="L83" s="9">
-        <f>L68+L72+L79+L81</f>
-        <v>112.265</v>
-      </c>
-      <c r="M83" s="9">
-        <f t="shared" ref="M83:O83" si="87">M68+M72+M79+M81</f>
-        <v>0</v>
-      </c>
-      <c r="N83" s="9">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="O83" s="9">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="P83" s="8">
-        <f t="shared" ref="P83" si="88">P68+P72+P79+P81</f>
-        <v>34.609000000000037</v>
-      </c>
-      <c r="U83" s="9"/>
-      <c r="V83" s="9"/>
-      <c r="W83" s="9">
-        <f t="shared" ref="W83:Y83" si="89">W68+W72+W79+W81</f>
-        <v>-61.504999999999981</v>
-      </c>
-      <c r="X83" s="9">
-        <f t="shared" si="89"/>
-        <v>17.260000000000019</v>
-      </c>
-      <c r="Y83" s="9">
-        <f t="shared" si="89"/>
-        <v>77.150000000000006</v>
-      </c>
-      <c r="Z83" s="9">
-        <f>Z68+Z72+Z79+Z81</f>
-        <v>-38.519000000000005</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="9"/>
-      <c r="P84" s="8"/>
-      <c r="U84" s="9"/>
-      <c r="V84" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="8">
+        <v>-23</v>
+      </c>
+      <c r="W83" s="9"/>
+      <c r="X83" s="9"/>
+      <c r="Y83" s="9"/>
+      <c r="Z83" s="9"/>
+      <c r="AA83" s="9"/>
+      <c r="AB83" s="9"/>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C84" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84" s="27">
+        <f t="shared" ref="D84:K84" si="78">SUM(D78:D82)</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="27">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="27">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="27">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="27">
+        <f t="shared" si="78"/>
+        <v>-1.4829999999999999</v>
+      </c>
+      <c r="I84" s="27">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="27">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="27">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="27">
+        <f>SUM(L78:L83)</f>
+        <v>200.78399999999999</v>
+      </c>
+      <c r="M84" s="27">
+        <f>SUM(M78:M82)</f>
+        <v>0</v>
+      </c>
+      <c r="N84" s="27">
+        <f>SUM(N78:N82)</f>
+        <v>0</v>
+      </c>
+      <c r="O84" s="27">
+        <f>SUM(O78:O82)</f>
+        <v>0</v>
+      </c>
+      <c r="P84" s="27">
+        <f>SUM(P78:P83)</f>
+        <v>482.05400000000003</v>
+      </c>
+      <c r="Q84" s="10">
+        <f>SUM(Q78:Q83)</f>
+        <v>115.45599999999996</v>
+      </c>
+      <c r="R84" s="27">
+        <f>SUM(R78:R82)</f>
+        <v>0</v>
+      </c>
+      <c r="S84" s="27">
+        <f>SUM(S78:S82)</f>
+        <v>0</v>
+      </c>
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
-      <c r="Y84" s="9"/>
-      <c r="Z84" s="9"/>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C85" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D85" s="9">
-        <f t="shared" ref="D85:K85" si="90">D68+D70</f>
-        <v>0</v>
-      </c>
-      <c r="E85" s="9">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="F85" s="9">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="9">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="H85" s="9">
-        <f t="shared" si="90"/>
-        <v>-3.1610000000000005</v>
-      </c>
-      <c r="I85" s="9">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="9">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="K85" s="9">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="L85" s="9">
-        <f>L68+L70</f>
-        <v>-89.08</v>
-      </c>
-      <c r="M85" s="9">
-        <f t="shared" ref="M85:O85" si="91">M68+M70</f>
-        <v>0</v>
-      </c>
-      <c r="N85" s="9">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="O85" s="9">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="P85" s="8">
-        <f t="shared" ref="P85" si="92">P68+P70</f>
-        <v>-446.87599999999998</v>
-      </c>
-      <c r="U85" s="9"/>
+      <c r="Y84" s="27">
+        <f>SUM(Y78:Y82)</f>
+        <v>71.833000000000013</v>
+      </c>
+      <c r="Z84" s="27">
+        <f>SUM(Z78:Z82)</f>
+        <v>213.18100000000001</v>
+      </c>
+      <c r="AA84" s="27">
+        <f>SUM(AA78:AA82)</f>
+        <v>70.375</v>
+      </c>
+      <c r="AB84" s="27">
+        <f>SUM(AB78:AB82)</f>
+        <v>482.24</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
       <c r="V85" s="9"/>
-      <c r="W85" s="9">
-        <f t="shared" ref="W85:Y85" si="93">W68+W70</f>
-        <v>-132.904</v>
-      </c>
-      <c r="X85" s="9">
-        <f t="shared" si="93"/>
-        <v>-195.119</v>
-      </c>
-      <c r="Y85" s="9">
-        <f t="shared" si="93"/>
-        <v>-4.0969999999999942</v>
-      </c>
-      <c r="Z85" s="9">
-        <f>Z68+Z70</f>
-        <v>-522.55500000000006</v>
-      </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="W85" s="9"/>
+      <c r="X85" s="9"/>
+      <c r="Y85" s="9"/>
+      <c r="Z85" s="9"/>
+      <c r="AA85" s="9"/>
+      <c r="AB85" s="9"/>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C86" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
+      <c r="H86" s="9">
+        <v>0</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
+      <c r="L86" s="9">
+        <v>0.56100000000000005</v>
+      </c>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
-      <c r="U86" s="9"/>
-      <c r="V86" s="9"/>
+      <c r="P86" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
-      <c r="Z86" s="9"/>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Z86" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="9">
+        <v>-1.3</v>
+      </c>
+      <c r="AB86" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
       <c r="N87" s="9"/>
-      <c r="U87" s="9"/>
-      <c r="V87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="81" t="s">
+        <v>227</v>
+      </c>
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="N88" s="9"/>
-      <c r="U88" s="9"/>
-      <c r="V88" s="9"/>
+      <c r="AA87" s="9"/>
+      <c r="AB87" s="9"/>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D88" s="9">
+        <f t="shared" ref="D88:S88" si="79">D72+D76+D84+D86</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="9">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="9">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="9">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="9">
+        <f t="shared" si="79"/>
+        <v>-4.6829999999999998</v>
+      </c>
+      <c r="I88" s="9">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="9">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="9">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="9">
+        <f t="shared" si="79"/>
+        <v>112.265</v>
+      </c>
+      <c r="M88" s="9">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="9">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="9">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="9">
+        <f t="shared" si="79"/>
+        <v>34.609000000000037</v>
+      </c>
+      <c r="Q88" s="8">
+        <f t="shared" si="79"/>
+        <v>-37.407000000000039</v>
+      </c>
+      <c r="R88" s="9">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="S88" s="9">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
-      <c r="Y88" s="9"/>
-      <c r="Z88" s="9"/>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Y88" s="9">
+        <f>Y72+Y76+Y84+Y86</f>
+        <v>-61.504999999999981</v>
+      </c>
+      <c r="Z88" s="9">
+        <f>Z72+Z76+Z84+Z86</f>
+        <v>17.260000000000019</v>
+      </c>
+      <c r="AA88" s="9">
+        <f>AA72+AA76+AA84+AA86</f>
+        <v>77.150000000000006</v>
+      </c>
+      <c r="AB88" s="9">
+        <f>AB72+AB76+AB84+AB86</f>
+        <v>-38.519000000000005</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
       <c r="N89" s="9"/>
-      <c r="U89" s="9"/>
-      <c r="V89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="N90" s="9"/>
-      <c r="U90" s="9"/>
-      <c r="V90" s="9"/>
+      <c r="AA89" s="9"/>
+      <c r="AB89" s="9"/>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C90" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D90" s="9">
+        <f t="shared" ref="D90:K90" si="80">D72+D74</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="9">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="9">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="9">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="9">
+        <f t="shared" si="80"/>
+        <v>-3.1610000000000005</v>
+      </c>
+      <c r="I90" s="9">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="9">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="9">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="9">
+        <f>L72+L74</f>
+        <v>-89.08</v>
+      </c>
+      <c r="M90" s="9">
+        <f t="shared" ref="M90:O90" si="81">M72+M74</f>
+        <v>0</v>
+      </c>
+      <c r="N90" s="9">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="9">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="9">
+        <f t="shared" ref="P90:S90" si="82">P72+P74</f>
+        <v>-446.87599999999998</v>
+      </c>
+      <c r="Q90" s="8">
+        <f t="shared" si="82"/>
+        <v>-152.863</v>
+      </c>
+      <c r="R90" s="9">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S90" s="9">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
-      <c r="Y90" s="9"/>
-      <c r="Z90" s="9"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Y90" s="9">
+        <f t="shared" ref="Y90:AA90" si="83">Y72+Y74</f>
+        <v>-132.904</v>
+      </c>
+      <c r="Z90" s="9">
+        <f t="shared" si="83"/>
+        <v>-195.119</v>
+      </c>
+      <c r="AA90" s="9">
+        <f t="shared" si="83"/>
+        <v>-4.0969999999999942</v>
+      </c>
+      <c r="AB90" s="9">
+        <f>AB72+AB74</f>
+        <v>-522.55500000000006</v>
+      </c>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
       <c r="N91" s="9"/>
-      <c r="U91" s="9"/>
-      <c r="V91" s="9"/>
+      <c r="O91" s="9"/>
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="AA91" s="9"/>
+      <c r="AB91" s="9"/>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.25">
       <c r="N92" s="9"/>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="W92" s="9"/>
+      <c r="X92" s="9"/>
+      <c r="Y92" s="9"/>
+      <c r="Z92" s="9"/>
+      <c r="AA92" s="9"/>
+      <c r="AB92" s="9"/>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.25">
       <c r="N93" s="9"/>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="W93" s="9"/>
+      <c r="X93" s="9"/>
+      <c r="Y93" s="9"/>
+      <c r="Z93" s="9"/>
+      <c r="AA93" s="9"/>
+      <c r="AB93" s="9"/>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.25">
       <c r="N94" s="9"/>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="W94" s="9"/>
+      <c r="X94" s="9"/>
+      <c r="Y94" s="9"/>
+      <c r="Z94" s="9"/>
+      <c r="AA94" s="9"/>
+      <c r="AB94" s="9"/>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.25">
       <c r="N95" s="9"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="W95" s="9"/>
+      <c r="X95" s="9"/>
+      <c r="Y95" s="9"/>
+      <c r="Z95" s="9"/>
+      <c r="AA95" s="9"/>
+      <c r="AB95" s="9"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.25">
       <c r="N96" s="9"/>
+      <c r="W96" s="9"/>
+      <c r="X96" s="9"/>
+      <c r="Y96" s="9"/>
+      <c r="Z96" s="9"/>
+      <c r="AA96" s="9"/>
+      <c r="AB96" s="9"/>
     </row>
     <row r="97" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N97" s="9"/>
@@ -7501,7 +8242,23 @@
     <row r="210" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N210" s="9"/>
     </row>
+    <row r="211" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N211" s="9"/>
+    </row>
+    <row r="212" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N212" s="9"/>
+    </row>
+    <row r="213" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N213" s="9"/>
+    </row>
+    <row r="214" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N214" s="9"/>
+    </row>
+    <row r="215" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N215" s="9"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7510,8 +8267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F378A3A6-3437-C44D-8681-BBAC0A234C8E}">
   <dimension ref="E7:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7534,56 +8291,121 @@
     </row>
     <row r="8" spans="5:8" ht="92" x14ac:dyDescent="1">
       <c r="E8" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" s="29">
-        <f>Modell!$B$9/(Modell!AA7*Modell!$B$12)</f>
-        <v>7.3465191505237391</v>
+        <f>Modell!$B$9/(Modell!AC7*Modell!$B$12)</f>
+        <v>5.6559116155192584</v>
       </c>
       <c r="G8" s="29">
-        <f>Modell!$B$9/(Modell!AB7*Modell!$B$12)</f>
-        <v>3.7584951392216532</v>
+        <f>Modell!$B$9/(Modell!AD7*Modell!$B$12)</f>
+        <v>4.2138075688859571</v>
       </c>
       <c r="H8" s="29">
-        <f>Modell!$B$9/(Modell!AC7*Modell!$B$12)</f>
-        <v>2.6922899119035937</v>
+        <f>Modell!$B$9/(Modell!AE7*Modell!$B$12)</f>
+        <v>3.0184398777123502</v>
       </c>
     </row>
     <row r="9" spans="5:8" ht="92" x14ac:dyDescent="1">
       <c r="E9" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F9" s="29">
-        <f>Modell!$B$9/(Modell!AA9*Modell!$B$12)</f>
-        <v>11.69678105051141</v>
+        <f>Modell!$B$9/(Modell!AC9*Modell!$B$12)</f>
+        <v>7.2367564769997959</v>
       </c>
       <c r="G9" s="29">
-        <f>Modell!$B$9/(Modell!AB9*Modell!$B$12)</f>
-        <v>6.6404083450146141</v>
+        <f>Modell!$B$9/(Modell!AD9*Modell!$B$12)</f>
+        <v>7.4448421264981919</v>
       </c>
       <c r="H9" s="29">
-        <f>Modell!$B$9/(Modell!AC9*Modell!$B$12)</f>
-        <v>3.39615655553852</v>
+        <f>Modell!$B$9/(Modell!AE9*Modell!$B$12)</f>
+        <v>3.8075744862645986</v>
       </c>
     </row>
     <row r="10" spans="5:8" ht="92" x14ac:dyDescent="1">
       <c r="E10" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="28">
-        <f>Modell!$B$4/Modell!AA16</f>
-        <v>13.216964159621476</v>
+        <v>120</v>
+      </c>
+      <c r="F10" s="29">
+        <f>Modell!$B$4/Modell!AC16</f>
+        <v>5.2637813691889406</v>
       </c>
       <c r="G10" s="29">
-        <f>Modell!$B$4/Modell!AB16</f>
-        <v>5.1646901903740403</v>
+        <f>Modell!$B$4/Modell!AD16</f>
+        <v>4.526509060149448</v>
       </c>
       <c r="H10" s="29">
-        <f>Modell!$B$4/Modell!AC16</f>
-        <v>3.1584858335554395</v>
+        <f>Modell!$B$4/Modell!AE16</f>
+        <v>2.7682037479400012</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB30DAC-43E0-5044-95D3-312A56BDA480}">
+  <dimension ref="B6:J6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B6" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" s="68" t="s">
+        <v>263</v>
+      </c>
+      <c r="I6" s="68" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" s="68" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9933C8C4-18B3-F545-8A0C-805EA7D6E26B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>